--- a/Dataset/Folds/Fold_4/Excel/42.xlsx
+++ b/Dataset/Folds/Fold_4/Excel/42.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1665" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2913" uniqueCount="616">
   <si>
     <t>Doi</t>
   </si>
@@ -2103,6 +2103,608 @@
   </si>
   <si>
     <t>[Fei%Zhou%NULL%0,             Ting%Yu%NULL%0,             Ronghui%Du%NULL%1,             Guohui%Fan%NULL%0,             Ying%Liu%NULL%1,             Zhibo%Liu%NULL%1,             Jie%Xiang%NULL%0,             Yeming%Wang%NULL%0,             Bin%Song%NULL%1,             Xiaoying%Gu%NULL%0,             Lulu%Guan%NULL%1,             Yuan%Wei%NULL%0,             Hui%Li%NULL%0,             Xudong%Wu%NULL%1,             Jiuyang%Xu%NULL%0,             Shengjin%Tu%NULL%1,             Yi%Zhang%NULL%1,             Hua%Chen%NULL%1,             Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sulaiman%Almazeedi%NULL%2,              Sarah%Al-Youha%sarahalyouha@gmail.com%1,              Mohammad H.%Jamal%NULL%1,              Mohannad%Al-Haddad%NULL%1,              Ali%Al-Muhaini%NULL%1,              Fahad%Al-Ghimlas%NULL%1,              Salman%Al-Sabah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,              Samuel L%Bruce%NULL%1,              Cody L%Slater%NULL%1,              Jonathan R%Tiao%NULL%1,              Matthew R%Baldwin%NULL%1,              R Graham%Barr%NULL%1,              Bernard P%Chang%NULL%1,              Katherine H%Chau%NULL%1,              Justin J%Choi%NULL%1,              Nicholas%Gavin%NULL%1,              Parag%Goyal%NULL%1,              Angela M%Mills%NULL%1,              Ashmi A%Patel%NULL%1,              Marie-Laure S%Romney%NULL%1,              Monika M%Safford%NULL%1,              Neil W%Schluger%NULL%1,              Soumitra%Sengupta%NULL%1,              Magdalena E%Sobieszczyk%NULL%1,              Jason E%Zucker%NULL%1,              Paul A%Asadourian%NULL%1,              Fletcher M%Bell%NULL%1,              Rebekah%Boyd%NULL%1,              Matthew F%Cohen%NULL%1,              MacAlistair I%Colquhoun%NULL%1,              Lucy A%Colville%NULL%1,              Joseph H%de Jonge%NULL%1,              Lyle B%Dershowitz%NULL%1,              Shirin A%Dey%NULL%1,              Katherine A%Eiseman%NULL%1,              Zachary P%Girvin%NULL%1,              Daniella T%Goni%NULL%1,              Amro A%Harb%NULL%1,              Nicholas%Herzik%NULL%1,              Sarah%Householder%NULL%1,              Lara E%Karaaslan%NULL%1,              Heather%Lee%NULL%1,              Evan%Lieberman%NULL%1,              Andrew%Ling%NULL%1,              Ree%Lu%NULL%1,              Arthur Y%Shou%NULL%1,              Alexander C%Sisti%NULL%1,              Zachary E%Snow%NULL%1,              Colin P%Sperring%NULL%1,              Yuqing%Xiong%NULL%1,              Henry W%Zhou%NULL%1,              Karthik%Natarajan%NULL%1,              George%Hripcsak%NULL%1,              Ruijun%Chen%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,              Mark%Caridi-Scheible%NULL%1,              James M.%Blum%NULL%1,              Chad%Robichaux%NULL%1,              Colleen%Kraft%NULL%1,              Jesse T.%Jacob%NULL%1,              Craig S.%Jabaley%NULL%1,              David%Carpenter%NULL%1,              Roberta%Kaplow%NULL%1,              Alfonso C.%Hernandez-Romieu%NULL%1,              Max W.%Adelman%NULL%1,              Greg S.%Martin%NULL%1,              Craig M.%Coopersmith%NULL%1,              David J.%Murphy%NULL%1,              NULL%NULL%NULL%8,              NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,              Denise J%McCulloch%NULL%2,              Denise J%McCulloch%NULL%0,              Vidya%Atluri%NULL%1,              Michela%Blain%NULL%1,              Sarah A%McGuffin%NULL%1,              Arun K%Nalla%NULL%1,              Meei-Li%Huang%NULL%1,              Alex L%Greninger%NULL%1,              Keith R%Jerome%NULL%1,              Seth A%Cohen%NULL%1,              Santiago%Neme%NULL%1,              Margaret L%Green%NULL%1,              Helen Y%Chu%NULL%1,              H Nina%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,              Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%1,              Wenlin%Cheng%NULL%1,              Lei%Yu%NULL%1,              Ya-Kun%Liu%NULL%1,              Xiaoyong%Hu%NULL%1,              Qiang%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Salvatore%Caratozzolo%NULL%1,              Alberto%Zucchelli%NULL%1,              Marinella%Turla%NULL%1,              Maria Sofia%Cotelli%NULL%1,              Sara%Fascendini%NULL%1,              Mara%Zanni%NULL%1,              Angelo%Bianchetti%NULL%1,              Matteo Peli%Psy%NULL%1,              Renzo%Rozzini%NULL%1,              Stefano%Boffelli%NULL%1,              Melania%Cappuccio%NULL%1,              Federica Gottardi%Psy%NULL%1,              Chiara Vecchi%Psy%NULL%1,              Daniele%Bellandi%NULL%1,              Claudia%Caminati%NULL%1,              Simona%Gentile%NULL%1,              Elena Lucchi%Psy%NULL%1,              Ignazio%Di Fazio%NULL%1,              Marina Zanetti%Psy%NULL%1,              Giuliana%Vezzadini%NULL%1,              Chiara Forlani%Psy%NULL%1,              Maura Cosseddu%Psy%NULL%1,              Rosanna Turrone%Psy%NULL%1,              Silvia Pelizzari%Psy%NULL%1,              Andrea%Scalvini%NULL%1,              Marco%Di Cesare%NULL%1,              Marta Grigolo%Psy%NULL%1,              Lina%Falanga%NULL%1,              Nives%Medici%NULL%1,              Nives%Palamini%NULL%1,              Elisa Zanacchi%Psy%NULL%1,              Eleonora Grossi%Psy%NULL%1,              Giuseppe%Bellelli%NULL%1,              Alessandra%Marengoni%NULL%1,              Marco%Trabucchi%NULL%1,              Alessandro%Padovani%alessandro.padovani@unibs.it%1,              NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,              NULL%NULL%NULL%0,              NULL%NULL%NULL%0,              Nancy%Chow%NULL%1,              Katherine%Fleming-Dutra%NULL%1,              Ryan%Gierke%NULL%1,              Aron%Hall%NULL%1,              Michelle%Hughes%NULL%1,              Tamara%Pilishvili%NULL%1,              Matthew%Ritchey%NULL%1,              Katherine%Roguski%NULL%1,              Tami%Skoff%NULL%1,              Emily%Ussery%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qingqing%Chen%NULL%2,              Zhencang%Zheng%NULL%1,              Chao%Zhang%NULL%1,              Xijiang%Zhang%NULL%1,              Huijuan%Wu%NULL%1,              Jingdong%Wang%NULL%1,              Shuwei%Wang%NULL%1,              Cheng%Zheng%dr.zhengcheng@foxmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0,              Wei%Liu%NULL%1,              Kui%Liu%NULL%2,              Yuan-Yuan%Fang%NULL%1,              Jin%Shang%NULL%1,              Ling%Zhou%NULL%2,              Ke%Wang%NULL%2,              Fan%Leng%NULL%1,              Shuang%Wei%NULL%2,              Lei%Chen%NULL%1,              Hui-Guo%Liu%NULL%2,              Pei-Fang%Wei%NULL%4,              Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nathalie%Nicolay%NULL%1,              Francesco%Innocenti%NULL%1,              Julien%Beauté%NULL%1,              Veronika%Učakar%NULL%1,              Marta%Grgič Vitek%NULL%1,              Eero%Poukka%NULL%1,              Tuula%Hannila-Handelberg%NULL%1,              Charmaine%Gauci%NULL%1,              Tanya%Melillo%NULL%1,              Theano%Georgakopoulou%NULL%1,              Jiri%Jarkovsky%NULL%1,              Pavel%Slezak%NULL%1,              Concepción%Delgado-Sanz%NULL%1,              Carmen%Olmedo-Lucerón%NULL%1,              Heleene%Suija%NULL%1,              Rasa%Liausediene%NULL%1,              Piaras%O’Lorcain%NULL%1,              Niamh%Murphy%NULL%1,              André%Peralta-Santos%NULL%1,              Pedro%Casaca%NULL%1,              Ioanna%Gregoriou%NULL%1,              Nick%Bundle%NULL%1,              Gianfranco%Spiteri%NULL%1,              Giovanni%Ravasi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Feng%NULL%2,              Peiyun%Li%NULL%1,              Liang%Ma%NULL%1,              Hang%Liang%NULL%1,              Jie%Lei%NULL%1,              Wenqiang%Li%NULL%1,              Kun%Wang%NULL%1,              Yu%Song%NULL%1,              Shuai%Li%NULL%1,              Wei%Yang%NULL%1,              Cao%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0,              Yun%Ling%NULL%2,              Yun%Ling%NULL%0,              Tao%Bai%NULL%2,              Tao%Bai%NULL%0,              Yusang%Xie%NULL%1,              Jie%Huang%NULL%2,              Jie%Huang%NULL%0,              Jian%Li%NULL%1,              Weining%Xiong%NULL%1,              Dexiang%Yang%NULL%1,              Rong%Chen%NULL%1,              Fangying%Lu%NULL%1,              Yunfei%Lu%NULL%1,              Xuhui%Liu%NULL%1,              Yuqing%Chen%NULL%2,              Yuqing%Chen%NULL%0,              Xin%Li%NULL%1,              Yong%Li%NULL%1,              Hanssa Dwarka%Summah%NULL%1,              Huihuang%Lin%NULL%1,              Jiayang%Yan%NULL%1,              Min%Zhou%NULL%2,              Hongzhou%Lu%NULL%2,              Hongzhou%Lu%NULL%0,              Jieming%Qu%NULL%2,              Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Paolo%Giorgi Rossi%NULL%0,              Massimiliano%Marino%NULL%1,              Debora%Formisano%NULL%1,              Francesco%Venturelli%NULL%1,              Massimo%Vicentini%NULL%2,              Massimo%Vicentini%NULL%0,              Roberto%Grilli%NULL%1,              NULL%NULL%NULL%0,              Gianluigi%Forloni%NULL%8,              Gianluigi%Forloni%NULL%0,              Gianluigi%Forloni%NULL%0,              Gianluigi%Forloni%NULL%0,              Gianluigi%Forloni%NULL%0,              Gianluigi%Forloni%NULL%0,              Gianluigi%Forloni%NULL%0,              Gianluigi%Forloni%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0,              Justin J.%Choi%NULL%1,              Laura C.%Pinheiro%NULL%1,              Edward J.%Schenck%NULL%1,              Ruijun%Chen%NULL%0,              Assem%Jabri%NULL%1,              Michael J.%Satlin%NULL%1,              Thomas R.%Campion%NULL%1,              Musarrat%Nahid%NULL%1,              Joanna B.%Ringel%NULL%1,              Katherine L.%Hoffman%NULL%1,              Mark N.%Alshak%NULL%1,              Han A.%Li%NULL%1,              Graham T.%Wehmeyer%NULL%2,              Graham T.%Wehmeyer%NULL%0,              Mangala%Rajan%NULL%1,              Evgeniya%Reshetnyak%NULL%1,              Nathaniel%Hupert%NULL%1,              Evelyn M.%Horn%NULL%1,              Fernando J.%Martinez%NULL%1,              Roy M.%Gulick%NULL%1,              Monika M.%Safford%NULL%2,              Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jonathan%Grein%NULL%1,              Norio%Ohmagari%NULL%1,              Daniel%Shin%NULL%1,              George%Diaz%NULL%1,              Erika%Asperges%NULL%1,              Antonella%Castagna%NULL%1,              Torsten%Feldt%NULL%1,              Gary%Green%NULL%1,              Margaret L.%Green%NULL%1,              François-Xavier%Lescure%NULL%1,              Emanuele%Nicastri%NULL%1,              Rentaro%Oda%NULL%2,              Rentaro%Oda%NULL%0,              Kikuo%Yo%NULL%2,              Kikuo%Yo%NULL%0,              Eugenia%Quiros-Roldan%NULL%1,              Alex%Studemeister%NULL%1,              John%Redinski%NULL%1,              Seema%Ahmed%NULL%1,              Jorge%Bernett%NULL%1,              Daniel%Chelliah%NULL%1,              Danny%Chen%NULL%1,              Shingo%Chihara%NULL%1,              Stuart H.%Cohen%NULL%1,              Jennifer%Cunningham%NULL%1,              Antonella%D’Arminio Monforte%NULL%1,              Saad%Ismail%NULL%1,              Hideaki%Kato%NULL%1,              Giuseppe%Lapadula%NULL%1,              Erwan%L’Her%NULL%1,              Toshitaka%Maeno%NULL%1,              Sumit%Majumder%NULL%1,              Marco%Massari%NULL%1,              Marta%Mora-Rillo%NULL%1,              Yoshikazu%Mutoh%NULL%1,              Duc%Nguyen%NULL%1,              Ewa%Verweij%NULL%1,              Alexander%Zoufaly%NULL%1,              Anu O.%Osinusi%NULL%1,              Adam%DeZure%NULL%1,              Yang%Zhao%NULL%1,              Lijie%Zhong%NULL%1,              Anand%Chokkalingam%NULL%1,              Emon%Elboudwarej%NULL%1,              Laura%Telep%NULL%1,              Leighann%Timbs%NULL%1,              Ilana%Henne%NULL%1,              Scott%Sellers%NULL%1,              Huyen%Cao%NULL%1,              Susanna K.%Tan%NULL%1,              Lucinda%Winterbourne%NULL%1,              Polly%Desai%NULL%1,              Robertino%Mera%NULL%1,              Anuj%Gaggar%NULL%1,              Robert P.%Myers%NULL%1,              Diana M.%Brainard%NULL%1,              Richard%Childs%NULL%1,              Timothy%Flanigan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,              Zheng-yi%Ni%NULL%2,              Zheng-yi%Ni%NULL%0,              Yu%Hu%NULL%1,              Wen-hua%Liang%NULL%1,              Chun-quan%Ou%NULL%1,              Jian-xing%He%NULL%1,              Lei%Liu%NULL%1,              Hong%Shan%NULL%1,              Chun-liang%Lei%NULL%1,              David S.C.%Hui%NULL%1,              Bin%Du%NULL%1,              Lan-juan%Li%NULL%1,              Guang%Zeng%NULL%1,              Kwok-Yung%Yuen%NULL%1,              Ru-chong%Chen%NULL%1,              Chun-li%Tang%NULL%1,              Tao%Wang%NULL%1,              Ping-yan%Chen%NULL%1,              Jie%Xiang%NULL%2,              Shi-yue%Li%NULL%1,              Jin-lin%Wang%NULL%1,              Zi-jing%Liang%NULL%1,              Yi-xiang%Peng%NULL%1,              Li%Wei%NULL%1,              Yong%Liu%NULL%1,              Ya-hua%Hu%NULL%1,              Peng%Peng%NULL%1,              Jian-ming%Wang%NULL%2,              Ji-yang%Liu%NULL%1,              Zhong%Chen%NULL%1,              Gang%Li%NULL%1,              Zhi-jian%Zheng%NULL%1,              Shao-qin%Qiu%NULL%1,              Jie%Luo%NULL%1,              Chang-jiang%Ye%NULL%1,              Shao-yong%Zhu%NULL%1,              Nan-shan%Zhong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rahmet%GÜNER%NULL%1,              İmran%HASANOĞLU%NULL%2,              İmran%HASANOĞLU%NULL%0,              Bircan%KAYAASLAN%NULL%2,              Bircan%KAYAASLAN%NULL%0,              Adalet%AYPAK%NULL%2,              Adalet%AYPAK%NULL%0,              Ayşe%KAYA KALEM%NULL%2,              Ayşe%KAYA KALEM%NULL%0,              Fatma%ESER%NULL%2,              Fatma%ESER%NULL%0,              Burcu%ÖZDEMİR%NULL%2,              Burcu%ÖZDEMİR%NULL%0,              Elif Mükime%SARICAOĞLU%NULL%2,              Elif Mükime%SARICAOĞLU%NULL%0,              Müge%AYHAN%NULL%2,              Müge%AYHAN%NULL%0,              Yeşim%AYBAR BİLİR%NULL%2,              Yeşim%AYBAR BİLİR%NULL%0,              Işıl%ÖZKOÇAK TURAN%NULL%2,              Işıl%ÖZKOÇAK TURAN%NULL%0,              Deniz%ERDEM%NULL%2,              Deniz%ERDEM%NULL%0,              Nevzat Mehmet%MUTLU%NULL%1,              Turan%BUZGAN%NULL%2,              Turan%BUZGAN%NULL%0,              Bedia%DİNÇ%NULL%2,              Bedia%DİNÇ%NULL%0,              Esragül%AKINCI%NULL%2,              Esragül%AKINCI%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Stephanie L.%Harrison%NULL%1,              Elnara%Fazio-Eynullayeva%NULL%2,              Elnara%Fazio-Eynullayeva%NULL%0,              Deirdre A.%Lane%NULL%2,              Deirdre A.%Lane%NULL%0,              Paula%Underhill%NULL%2,              Paula%Underhill%NULL%0,              Gregory Y. H.%Lip%NULL%1,              Mirjam E. E.%Kretzschmar%NULL%3,              Mirjam E. E.%Kretzschmar%NULL%0,              Mirjam E. E.%Kretzschmar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuanzhou%He%NULL%1,              Min%Xie%NULL%2,              Jianping%Zhao%NULL%3,              Xiansheng%Liu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Ling%Hu%NULL%0,              Shaoqiu%Chen%NULL%1,              Yuanyuan%Fu%NULL%1,              Zitong%Gao%NULL%1,              Hui%Long%NULL%1,              Jian-ming%Wang%NULL%0,              Hong-wei%Ren%NULL%1,              Yi%Zuo%NULL%1,              Huan%Li%NULL%1,              Jie%Wang%NULL%1,              Qing-bang%Xu%NULL%1,              Wen-xiong%Yu%NULL%1,              Jia%Liu%NULL%1,              Chen%Shao%NULL%1,              Jun-jie%Hao%NULL%1,              Chuan-zhen%Wang%NULL%1,              Yao%Ma%NULL%1,              Zhanwei%Wang%NULL%1,              Richard%Yanagihara%NULL%1,              Youping%Deng%dengy@hawaii.edu%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,              Yeming%Wang%NULL%2,              Xingwang%Li%NULL%1,              Lili%Ren%NULL%1,              Jianping%Zhao%NULL%0,              Yi%Hu%NULL%2,              Li%Zhang%NULL%1,              Guohui%Fan%NULL%2,              Jiuyang%Xu%NULL%2,              Xiaoying%Gu%NULL%2,              Zhenshun%Cheng%NULL%2,              Ting%Yu%NULL%3,              Jiaan%Xia%NULL%1,              Yuan%Wei%NULL%2,              Wenjuan%Wu%NULL%1,              Xuelei%Xie%NULL%1,              Wen%Yin%NULL%1,              Hui%Li%NULL%2,              Min%Liu%NULL%1,              Yan%Xiao%NULL%1,              Hong%Gao%NULL%1,              Li%Guo%NULL%1,              Jungang%Xie%NULL%2,              Guangfa%Wang%NULL%1,              Rongmeng%Jiang%NULL%1,              Zhancheng%Gao%NULL%1,              Qi%Jin%NULL%1,              Jianwei%Wang%wangjw28@163.com%1,              Bin%Cao%caobin_ben@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Filippo%Lagi%NULL%1,              Matteo%Piccica%NULL%1,              Lucia%Graziani%NULL%1,              Iacopo%Vellere%NULL%1,              Annarita%Botta%NULL%1,              Marta%Tilli%NULL%1,              Letizia%Ottino%NULL%1,              Beatrice%Borchi%NULL%1,              Marco%Pozzi%NULL%1,              Filippo%Bartalesi%NULL%1,              Jessica%Mencarini%NULL%1,              Michele%Spinicci%NULL%1,              Lorenzo%Zammarchi%NULL%1,              Filippo%Pieralli%NULL%1,              Giovanni%Zagli%NULL%1,              Carlo%Nozzoli%NULL%1,              Stefano%Romagnoli%NULL%1,              Alessandro%Bartoloni%NULL%1,              NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,              Zhao-Wu%Tao%NULL%1,              Lei%Wang%NULL%1,              Ming-Li%Yuan%NULL%1,              Kui%Liu%NULL%0,              Ling%Zhou%NULL%0,              Shuang%Wei%NULL%0,              Yan%Deng%NULL%1,              Jing%Liu%NULL%1,              Hui-Guo%Liu%NULL%0,              Ming%Yang%NULL%1,              Yi%Hu%NULL%0,              Pei-Fang%Wei%NULL%0,              Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0,              Shuyun%Xu%NULL%1,              Muqing%Yu%NULL%1,              Ke%Wang%NULL%0,              Yu%Tao%NULL%1,              Ying%Zhou%NULL%1,              Jing%Shi%NULL%1,              Min%Zhou%NULL%0,              Bo%Wu%NULL%1,              Zhenyu%Yang%NULL%1,              Cong%Zhang%NULL%1,              Junqing%Yue%NULL%1,              Zhiguo%Zhang%NULL%1,              Harald%Renz%NULL%1,              Xiansheng%Liu%NULL%0,              Jungang%Xie%NULL%0,              Min%Xie%NULL%0,              Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang-kai%Li%doclyk@163.com%1,              Shu%Peng%NULL%1,              Le-qun%Li%NULL%1,              Qi%Wang%NULL%1,              Wei%Ping%NULL%1,              Ni%Zhang%NULL%1,              Xiang-ning%Fu%fuxn2006@aliyun.com%1]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,              Yuanyuan%Xing%NULL%1,              Yu%Xiao%NULL%1,              Liping%Deng%NULL%1,              Qiu%Zhao%NULL%1,              Hongling%Wang%NULL%1,              Yong%Xiong%NULL%1,              Zhenshun%Cheng%NULL%0,              Shicheng%Gao%NULL%1,              Ke%Liang%NULL%1,              Mingqi%Luo%NULL%1,              Tielong%Chen%NULL%1,              Shihui%Song%NULL%1,              Zhiyong%Ma%NULL%1,              Xiaoping%Chen%NULL%1,              Ruiying%Zheng%NULL%1,              Qian%Cao%NULL%1,              Fan%Wang%fanndywang@foxmail.com%1,              Yongxi%Zhang%znact1936@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Gaspar Manuel%Parra-Bracamonte%NULL%1,              Nicolas%Lopez-Villalobos%NULL%1,              Francisco E.%Parra-Bracamonte%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ishan%Paranjpe%NULL%2,              Adam J%Russak%NULL%2,              Adam J%Russak%NULL%0,              Jessica K%De Freitas%NULL%1,              Anuradha%Lala%NULL%1,              Riccardo%Miotto%NULL%1,              Akhil%Vaid%NULL%1,              Kipp W%Johnson%NULL%1,              Matteo%Danieletto%NULL%1,              Eddye%Golden%NULL%1,              Dara%Meyer%NULL%1,              Manbir%Singh%NULL%1,              Sulaiman%Somani%NULL%1,              Arjun%Kapoor%NULL%1,              Ross%O'Hagan%NULL%1,              Sayan%Manna%NULL%1,              Udit%Nangia%NULL%1,              Suraj K%Jaladanki%NULL%1,              Paul%O’Reilly%NULL%2,              Paul%O’Reilly%NULL%0,              Laura M%Huckins%NULL%1,              Patricia%Glowe%NULL%1,              Arash%Kia%NULL%1,              Prem%Timsina%NULL%1,              Robert M%Freeman%NULL%1,              Matthew A%Levin%NULL%1,              Jeffrey%Jhang%NULL%1,              Adolfo%Firpo%NULL%1,              Patricia%Kovatch%NULL%1,              Joseph%Finkelstein%NULL%1,              Judith A%Aberg%NULL%1,              Emilia%Bagiella%NULL%1,              Carol R%Horowitz%NULL%1,              Barbara%Murphy%NULL%1,              Zahi A%Fayad%NULL%1,              Jagat%Narula%NULL%1,              Eric J%Nestler%NULL%1,              V%Fuster%NULL%1,              Carlos%Cordon-Cardo%NULL%1,              Dennis%Charney%NULL%1,              David L%Reich%NULL%1,              Allan%Just%NULL%1,              Erwin P%Bottinger%NULL%1,              Alexander W%Charney%NULL%1,              Benjamin S%Glicksberg%NULL%1,              Girish N%Nadkarni%NULL%1,              NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Grace%Salacup%salacupg@einstein.edu%0,              Kevin Bryan%Lo%NULL%2,              Kevin Bryan%Lo%NULL%0,              Fahad%Gul%NULL%1,              Eric%Peterson%NULL%1,              Robert%De Joy%NULL%1,              Ruchika%Bhargav%NULL%1,              Jerald%Pelayo%NULL%1,              Jeri%Albano%NULL%1,              Zurab%Azmaiparashvili%NULL%1,              Sadia%Benzaquen%NULL%1,              Gabriel%Patarroyo‐Aponte%NULL%1,              Janani%Rangaswami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,              Mu%Qin%qinmuae@163.com%1,              Yuli%Cai%NULL%1,              Tao%Liu%NULL%1,              Bo%Shen%NULL%1,              Fan%Yang%NULL%1,              Sheng%Cao%NULL%1,              Xu%Liu%NULL%2,              Xu%Liu%NULL%0,              Yaozu%Xiang%NULL%1,              Qinyan%Zhao%NULL%1,              He%Huang%huanghe1977@whu.edu.cn%1,              Bo%Yang%yybb112@whu.edu.cn%1,              Congxin%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jennifer%Tomlins%NULL%1,              Fergus%Hamilton%NULL%1,              Samuel%Gunning%NULL%1,              Caitlin%Sheehy%NULL%1,              Ed%Moran%NULL%1,              Alastair%MacGowan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,              Yi%Xiang%NULL%1,              Wei%Fang%NULL%1,              Yu%Zheng%yuzheng1@cdutcm.edu.cn%1,              Boqun%Li%279685211@qq.com%2,              Boqun%Li%279685211@qq.com%0,              Yanjun%Hu%huyanjun@163.com%1,              Chunhui%Lang%NULL%1,              Daoqiu%Huang%NULL%1,              Qiuyan%Sun%NULL%1,              Yan%Xiong%NULL%1,              Xia%Huang%NULL%1,              Jinglong%Lv%NULL%1,              Yaling%Luo%NULL%1,              Li%Shen%NULL%1,              Haoran%Yang%NULL%1,              Gu%Huang%NULL%1,              Ruishan%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%5,              Wenbo%He%NULL%1,              Xiaomei%Yu%NULL%1,              Dalong%Hu%NULL%1,              Mingwei%Bao%NULL%1,              Huafen%Liu%NULL%1,              Jiali%Zhou%NULL%1,              Hong%Jiang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,              Bohan%Yang%NULL%1,              Qianwen%Li%NULL%1,              Lu%Wen%NULL%1,              Ruiguang%Zhang%zrg27@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Xisheng%Yan%NULL%0,              Fen%Li%NULL%1,              Xiao%Wang%NULL%1,              Jie%Yan%NULL%1,              Fen%Zhu%NULL%1,              Shifan%Tang%NULL%1,              Yingzhong%Deng%NULL%1,              Hua%Wang%NULL%1,              Rui%Chen%NULL%1,              Zhili%Yu%NULL%1,              Yaping%Li%NULL%1,              Jingzhou%Shang%NULL%1,              Lingjun%Zeng%NULL%1,              Jie%Zhao%NULL%1,              Chaokun%Guan%NULL%1,              Qiaomei%Liu%NULL%1,              Haifeng%Chen%NULL%1,              Wei%Gong%NULL%1,              Xin%Huang%NULL%1,              Yu‐Jiao%Zhang%NULL%1,              Jianguang%Liu%NULL%1,              Xiaoyan%Dong%NULL%1,              Wen%Zheng%zhengwen12@mails.jlu.edu.cn%1,              Shaoping%Nie%spnie@126.com%1,              Dongsheng%Li%dongshengli196809@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Ping%Yang%NULL%1,              Pengfei%Wang%NULL%2,              Pengfei%Wang%NULL%0,              Yuyan%Song%NULL%1,              An%Zhang%zhangan@hospital.cqmu.edu.cn%1,              Guodan%Yuan%71502294@qq.com%1,              Yong%Cui%754605155@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,              Yuan%Yu%NULL%1,              Jiqian%Xu%NULL%1,              Huaqing%Shu%NULL%1,              Jia'an%Xia%NULL%1,              Hong%Liu%NULL%1,              Yongran%Wu%NULL%1,              Lu%Zhang%NULL%1,              Zhui%Yu%NULL%1,              Minghao%Fang%NULL%1,              Ting%Yu%NULL%0,              Yaxin%Wang%NULL%1,              Shangwen%Pan%NULL%1,              Xiaojing%Zou%NULL%1,              Shiying%Yuan%NULL%1,              You%Shang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%3,              Chang%Hu%NULL%1,              Linjie%Luo%NULL%1,              Fang%Fang%NULL%1,              Yongfeng%Chen%NULL%1,              Jianguo%Li%NULL%1,              Zhiyong%Peng%NULL%1,              Huaqin%Pan%phq2012@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Jun%Zhang%NULL%1,              Miao%Yu%NULL%1,              Song%Tong%NULL%1,              Lu-Yu%Liu%NULL%1,              Liang-V.%Tang%lancet.tang@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Rui%Zhang%NULL%2,              Huangqing%Ouyang%NULL%1,              Lingli%Fu%NULL%1,              Shijie%Wang%NULL%1,              Jianglong%Han%NULL%1,              Kejie%Huang%NULL%1,              Mingfang%Jia%NULL%1,              Qibin%Song%NULL%1,              Zhenming%Fu%davidfuzming@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Zirun%Zhao%NULL%0,              Anne%Chen%NULL%1,              Wei%Hou%NULL%1,              James M.%Graham%NULL%1,              Haifang%Li%NULL%1,              Paul S.%Richman%NULL%1,              Henry C.%Thode%NULL%1,              Adam J.%Singer%NULL%1,              Tim Q.%Duong%NULL%1,              Muhammad%Adrish%NULL%9,              Muhammad%Adrish%NULL%0,              Muhammad%Adrish%NULL%0,              Muhammad%Adrish%NULL%0,              Muhammad%Adrish%NULL%0,              Muhammad%Adrish%NULL%0,              Muhammad%Adrish%NULL%0,              Muhammad%Adrish%NULL%0,              Muhammad%Adrish%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,              Ting%Yu%NULL%0,              Ronghui%Du%NULL%1,              Guohui%Fan%NULL%0,              Ying%Liu%NULL%1,              Zhibo%Liu%NULL%1,              Jie%Xiang%NULL%0,              Yeming%Wang%NULL%0,              Bin%Song%NULL%1,              Xiaoying%Gu%NULL%0,              Lulu%Guan%NULL%1,              Yuan%Wei%NULL%0,              Hui%Li%NULL%0,              Xudong%Wu%NULL%1,              Jiuyang%Xu%NULL%0,              Shengjin%Tu%NULL%1,              Yi%Zhang%NULL%1,              Hua%Chen%NULL%1,              Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sulaiman%Almazeedi%NULL%2,               Sarah%Al-Youha%sarahalyouha@gmail.com%1,               Mohammad H.%Jamal%NULL%1,               Mohannad%Al-Haddad%NULL%1,               Ali%Al-Muhaini%NULL%1,               Fahad%Al-Ghimlas%NULL%1,               Salman%Al-Sabah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,               Samuel L%Bruce%NULL%1,               Cody L%Slater%NULL%1,               Jonathan R%Tiao%NULL%1,               Matthew R%Baldwin%NULL%1,               R Graham%Barr%NULL%1,               Bernard P%Chang%NULL%1,               Katherine H%Chau%NULL%1,               Justin J%Choi%NULL%1,               Nicholas%Gavin%NULL%1,               Parag%Goyal%NULL%1,               Angela M%Mills%NULL%1,               Ashmi A%Patel%NULL%1,               Marie-Laure S%Romney%NULL%1,               Monika M%Safford%NULL%1,               Neil W%Schluger%NULL%1,               Soumitra%Sengupta%NULL%1,               Magdalena E%Sobieszczyk%NULL%1,               Jason E%Zucker%NULL%1,               Paul A%Asadourian%NULL%1,               Fletcher M%Bell%NULL%1,               Rebekah%Boyd%NULL%1,               Matthew F%Cohen%NULL%1,               MacAlistair I%Colquhoun%NULL%1,               Lucy A%Colville%NULL%1,               Joseph H%de Jonge%NULL%1,               Lyle B%Dershowitz%NULL%1,               Shirin A%Dey%NULL%1,               Katherine A%Eiseman%NULL%1,               Zachary P%Girvin%NULL%1,               Daniella T%Goni%NULL%1,               Amro A%Harb%NULL%1,               Nicholas%Herzik%NULL%1,               Sarah%Householder%NULL%1,               Lara E%Karaaslan%NULL%1,               Heather%Lee%NULL%1,               Evan%Lieberman%NULL%1,               Andrew%Ling%NULL%1,               Ree%Lu%NULL%1,               Arthur Y%Shou%NULL%1,               Alexander C%Sisti%NULL%1,               Zachary E%Snow%NULL%1,               Colin P%Sperring%NULL%1,               Yuqing%Xiong%NULL%1,               Henry W%Zhou%NULL%1,               Karthik%Natarajan%NULL%1,               George%Hripcsak%NULL%1,               Ruijun%Chen%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,               Mark%Caridi-Scheible%NULL%1,               James M.%Blum%NULL%1,               Chad%Robichaux%NULL%1,               Colleen%Kraft%NULL%1,               Jesse T.%Jacob%NULL%1,               Craig S.%Jabaley%NULL%1,               David%Carpenter%NULL%1,               Roberta%Kaplow%NULL%1,               Alfonso C.%Hernandez-Romieu%NULL%1,               Max W.%Adelman%NULL%1,               Greg S.%Martin%NULL%1,               Craig M.%Coopersmith%NULL%1,               David J.%Murphy%NULL%1,               NULL%NULL%NULL%8,               NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,               Denise J%McCulloch%NULL%2,               Denise J%McCulloch%NULL%0,               Vidya%Atluri%NULL%1,               Michela%Blain%NULL%1,               Sarah A%McGuffin%NULL%1,               Arun K%Nalla%NULL%1,               Meei-Li%Huang%NULL%1,               Alex L%Greninger%NULL%1,               Keith R%Jerome%NULL%1,               Seth A%Cohen%NULL%1,               Santiago%Neme%NULL%1,               Margaret L%Green%NULL%1,               Helen Y%Chu%NULL%1,               H Nina%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,               Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%1,               Wenlin%Cheng%NULL%1,               Lei%Yu%NULL%1,               Ya-Kun%Liu%NULL%1,               Xiaoyong%Hu%NULL%1,               Qiang%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Salvatore%Caratozzolo%NULL%1,               Alberto%Zucchelli%NULL%1,               Marinella%Turla%NULL%1,               Maria Sofia%Cotelli%NULL%1,               Sara%Fascendini%NULL%1,               Mara%Zanni%NULL%1,               Angelo%Bianchetti%NULL%1,               Matteo Peli%Psy%NULL%1,               Renzo%Rozzini%NULL%1,               Stefano%Boffelli%NULL%1,               Melania%Cappuccio%NULL%1,               Federica Gottardi%Psy%NULL%1,               Chiara Vecchi%Psy%NULL%1,               Daniele%Bellandi%NULL%1,               Claudia%Caminati%NULL%1,               Simona%Gentile%NULL%1,               Elena Lucchi%Psy%NULL%1,               Ignazio%Di Fazio%NULL%1,               Marina Zanetti%Psy%NULL%1,               Giuliana%Vezzadini%NULL%1,               Chiara Forlani%Psy%NULL%1,               Maura Cosseddu%Psy%NULL%1,               Rosanna Turrone%Psy%NULL%1,               Silvia Pelizzari%Psy%NULL%1,               Andrea%Scalvini%NULL%1,               Marco%Di Cesare%NULL%1,               Marta Grigolo%Psy%NULL%1,               Lina%Falanga%NULL%1,               Nives%Medici%NULL%1,               Nives%Palamini%NULL%1,               Elisa Zanacchi%Psy%NULL%1,               Eleonora Grossi%Psy%NULL%1,               Giuseppe%Bellelli%NULL%1,               Alessandra%Marengoni%NULL%1,               Marco%Trabucchi%NULL%1,               Alessandro%Padovani%alessandro.padovani@unibs.it%1,               NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,               NULL%NULL%NULL%0,               NULL%NULL%NULL%0,               Nancy%Chow%NULL%1,               Katherine%Fleming-Dutra%NULL%1,               Ryan%Gierke%NULL%1,               Aron%Hall%NULL%1,               Michelle%Hughes%NULL%1,               Tamara%Pilishvili%NULL%1,               Matthew%Ritchey%NULL%1,               Katherine%Roguski%NULL%1,               Tami%Skoff%NULL%1,               Emily%Ussery%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qingqing%Chen%NULL%2,               Zhencang%Zheng%NULL%1,               Chao%Zhang%NULL%1,               Xijiang%Zhang%NULL%1,               Huijuan%Wu%NULL%1,               Jingdong%Wang%NULL%1,               Shuwei%Wang%NULL%1,               Cheng%Zheng%dr.zhengcheng@foxmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0,               Wei%Liu%NULL%1,               Kui%Liu%NULL%2,               Yuan-Yuan%Fang%NULL%1,               Jin%Shang%NULL%1,               Ling%Zhou%NULL%2,               Ke%Wang%NULL%2,               Fan%Leng%NULL%1,               Shuang%Wei%NULL%2,               Lei%Chen%NULL%1,               Hui-Guo%Liu%NULL%2,               Pei-Fang%Wei%NULL%4,               Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nathalie%Nicolay%NULL%1,               Francesco%Innocenti%NULL%1,               Julien%Beauté%NULL%1,               Veronika%Učakar%NULL%1,               Marta%Grgič Vitek%NULL%1,               Eero%Poukka%NULL%1,               Tuula%Hannila-Handelberg%NULL%1,               Charmaine%Gauci%NULL%1,               Tanya%Melillo%NULL%1,               Theano%Georgakopoulou%NULL%1,               Jiri%Jarkovsky%NULL%1,               Pavel%Slezak%NULL%1,               Concepción%Delgado-Sanz%NULL%1,               Carmen%Olmedo-Lucerón%NULL%1,               Heleene%Suija%NULL%1,               Rasa%Liausediene%NULL%1,               Piaras%O’Lorcain%NULL%1,               Niamh%Murphy%NULL%1,               André%Peralta-Santos%NULL%1,               Pedro%Casaca%NULL%1,               Ioanna%Gregoriou%NULL%1,               Nick%Bundle%NULL%1,               Gianfranco%Spiteri%NULL%1,               Giovanni%Ravasi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Feng%NULL%2,               Peiyun%Li%NULL%1,               Liang%Ma%NULL%1,               Hang%Liang%NULL%1,               Jie%Lei%NULL%1,               Wenqiang%Li%NULL%1,               Kun%Wang%NULL%1,               Yu%Song%NULL%1,               Shuai%Li%NULL%1,               Wei%Yang%NULL%1,               Cao%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0,               Yun%Ling%NULL%2,               Yun%Ling%NULL%0,               Tao%Bai%NULL%2,               Tao%Bai%NULL%0,               Yusang%Xie%NULL%1,               Jie%Huang%NULL%2,               Jie%Huang%NULL%0,               Jian%Li%NULL%1,               Weining%Xiong%NULL%1,               Dexiang%Yang%NULL%1,               Rong%Chen%NULL%1,               Fangying%Lu%NULL%1,               Yunfei%Lu%NULL%1,               Xuhui%Liu%NULL%1,               Yuqing%Chen%NULL%2,               Yuqing%Chen%NULL%0,               Xin%Li%NULL%1,               Yong%Li%NULL%1,               Hanssa Dwarka%Summah%NULL%1,               Huihuang%Lin%NULL%1,               Jiayang%Yan%NULL%1,               Min%Zhou%NULL%2,               Hongzhou%Lu%NULL%2,               Hongzhou%Lu%NULL%0,               Jieming%Qu%NULL%2,               Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Paolo%Giorgi Rossi%NULL%0,               Massimiliano%Marino%NULL%1,               Debora%Formisano%NULL%1,               Francesco%Venturelli%NULL%1,               Massimo%Vicentini%NULL%2,               Massimo%Vicentini%NULL%0,               Roberto%Grilli%NULL%1,               NULL%NULL%NULL%0,               Gianluigi%Forloni%NULL%8,               Gianluigi%Forloni%NULL%0,               Gianluigi%Forloni%NULL%0,               Gianluigi%Forloni%NULL%0,               Gianluigi%Forloni%NULL%0,               Gianluigi%Forloni%NULL%0,               Gianluigi%Forloni%NULL%0,               Gianluigi%Forloni%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0,               Justin J.%Choi%NULL%1,               Laura C.%Pinheiro%NULL%1,               Edward J.%Schenck%NULL%1,               Ruijun%Chen%NULL%0,               Assem%Jabri%NULL%1,               Michael J.%Satlin%NULL%1,               Thomas R.%Campion%NULL%1,               Musarrat%Nahid%NULL%1,               Joanna B.%Ringel%NULL%1,               Katherine L.%Hoffman%NULL%1,               Mark N.%Alshak%NULL%1,               Han A.%Li%NULL%1,               Graham T.%Wehmeyer%NULL%2,               Graham T.%Wehmeyer%NULL%0,               Mangala%Rajan%NULL%1,               Evgeniya%Reshetnyak%NULL%1,               Nathaniel%Hupert%NULL%1,               Evelyn M.%Horn%NULL%1,               Fernando J.%Martinez%NULL%1,               Roy M.%Gulick%NULL%1,               Monika M.%Safford%NULL%2,               Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jonathan%Grein%NULL%1,               Norio%Ohmagari%NULL%1,               Daniel%Shin%NULL%1,               George%Diaz%NULL%1,               Erika%Asperges%NULL%1,               Antonella%Castagna%NULL%1,               Torsten%Feldt%NULL%1,               Gary%Green%NULL%1,               Margaret L.%Green%NULL%1,               François-Xavier%Lescure%NULL%1,               Emanuele%Nicastri%NULL%1,               Rentaro%Oda%NULL%2,               Rentaro%Oda%NULL%0,               Kikuo%Yo%NULL%2,               Kikuo%Yo%NULL%0,               Eugenia%Quiros-Roldan%NULL%1,               Alex%Studemeister%NULL%1,               John%Redinski%NULL%1,               Seema%Ahmed%NULL%1,               Jorge%Bernett%NULL%1,               Daniel%Chelliah%NULL%1,               Danny%Chen%NULL%1,               Shingo%Chihara%NULL%1,               Stuart H.%Cohen%NULL%1,               Jennifer%Cunningham%NULL%1,               Antonella%D’Arminio Monforte%NULL%1,               Saad%Ismail%NULL%1,               Hideaki%Kato%NULL%1,               Giuseppe%Lapadula%NULL%1,               Erwan%L’Her%NULL%1,               Toshitaka%Maeno%NULL%1,               Sumit%Majumder%NULL%1,               Marco%Massari%NULL%1,               Marta%Mora-Rillo%NULL%1,               Yoshikazu%Mutoh%NULL%1,               Duc%Nguyen%NULL%1,               Ewa%Verweij%NULL%1,               Alexander%Zoufaly%NULL%1,               Anu O.%Osinusi%NULL%1,               Adam%DeZure%NULL%1,               Yang%Zhao%NULL%1,               Lijie%Zhong%NULL%1,               Anand%Chokkalingam%NULL%1,               Emon%Elboudwarej%NULL%1,               Laura%Telep%NULL%1,               Leighann%Timbs%NULL%1,               Ilana%Henne%NULL%1,               Scott%Sellers%NULL%1,               Huyen%Cao%NULL%1,               Susanna K.%Tan%NULL%1,               Lucinda%Winterbourne%NULL%1,               Polly%Desai%NULL%1,               Robertino%Mera%NULL%1,               Anuj%Gaggar%NULL%1,               Robert P.%Myers%NULL%1,               Diana M.%Brainard%NULL%1,               Richard%Childs%NULL%1,               Timothy%Flanigan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,               Zheng-yi%Ni%NULL%2,               Zheng-yi%Ni%NULL%0,               Yu%Hu%NULL%1,               Wen-hua%Liang%NULL%1,               Chun-quan%Ou%NULL%1,               Jian-xing%He%NULL%1,               Lei%Liu%NULL%1,               Hong%Shan%NULL%1,               Chun-liang%Lei%NULL%1,               David S.C.%Hui%NULL%1,               Bin%Du%NULL%1,               Lan-juan%Li%NULL%1,               Guang%Zeng%NULL%1,               Kwok-Yung%Yuen%NULL%1,               Ru-chong%Chen%NULL%1,               Chun-li%Tang%NULL%1,               Tao%Wang%NULL%1,               Ping-yan%Chen%NULL%1,               Jie%Xiang%NULL%2,               Shi-yue%Li%NULL%1,               Jin-lin%Wang%NULL%1,               Zi-jing%Liang%NULL%1,               Yi-xiang%Peng%NULL%1,               Li%Wei%NULL%1,               Yong%Liu%NULL%1,               Ya-hua%Hu%NULL%1,               Peng%Peng%NULL%1,               Jian-ming%Wang%NULL%2,               Ji-yang%Liu%NULL%1,               Zhong%Chen%NULL%1,               Gang%Li%NULL%1,               Zhi-jian%Zheng%NULL%1,               Shao-qin%Qiu%NULL%1,               Jie%Luo%NULL%1,               Chang-jiang%Ye%NULL%1,               Shao-yong%Zhu%NULL%1,               Nan-shan%Zhong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rahmet%GÜNER%NULL%1,               İmran%HASANOĞLU%NULL%2,               İmran%HASANOĞLU%NULL%0,               Bircan%KAYAASLAN%NULL%2,               Bircan%KAYAASLAN%NULL%0,               Adalet%AYPAK%NULL%2,               Adalet%AYPAK%NULL%0,               Ayşe%KAYA KALEM%NULL%2,               Ayşe%KAYA KALEM%NULL%0,               Fatma%ESER%NULL%2,               Fatma%ESER%NULL%0,               Burcu%ÖZDEMİR%NULL%2,               Burcu%ÖZDEMİR%NULL%0,               Elif Mükime%SARICAOĞLU%NULL%2,               Elif Mükime%SARICAOĞLU%NULL%0,               Müge%AYHAN%NULL%2,               Müge%AYHAN%NULL%0,               Yeşim%AYBAR BİLİR%NULL%2,               Yeşim%AYBAR BİLİR%NULL%0,               Işıl%ÖZKOÇAK TURAN%NULL%2,               Işıl%ÖZKOÇAK TURAN%NULL%0,               Deniz%ERDEM%NULL%2,               Deniz%ERDEM%NULL%0,               Nevzat Mehmet%MUTLU%NULL%1,               Turan%BUZGAN%NULL%2,               Turan%BUZGAN%NULL%0,               Bedia%DİNÇ%NULL%2,               Bedia%DİNÇ%NULL%0,               Esragül%AKINCI%NULL%2,               Esragül%AKINCI%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Stephanie L.%Harrison%NULL%1,               Elnara%Fazio-Eynullayeva%NULL%2,               Elnara%Fazio-Eynullayeva%NULL%0,               Deirdre A.%Lane%NULL%2,               Deirdre A.%Lane%NULL%0,               Paula%Underhill%NULL%2,               Paula%Underhill%NULL%0,               Gregory Y. H.%Lip%NULL%1,               Mirjam E. E.%Kretzschmar%NULL%3,               Mirjam E. E.%Kretzschmar%NULL%0,               Mirjam E. E.%Kretzschmar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuanzhou%He%NULL%1,               Min%Xie%NULL%2,               Jianping%Zhao%NULL%3,               Xiansheng%Liu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Ling%Hu%NULL%0,               Shaoqiu%Chen%NULL%1,               Yuanyuan%Fu%NULL%1,               Zitong%Gao%NULL%1,               Hui%Long%NULL%1,               Jian-ming%Wang%NULL%0,               Hong-wei%Ren%NULL%1,               Yi%Zuo%NULL%1,               Huan%Li%NULL%1,               Jie%Wang%NULL%1,               Qing-bang%Xu%NULL%1,               Wen-xiong%Yu%NULL%1,               Jia%Liu%NULL%1,               Chen%Shao%NULL%1,               Jun-jie%Hao%NULL%1,               Chuan-zhen%Wang%NULL%1,               Yao%Ma%NULL%1,               Zhanwei%Wang%NULL%1,               Richard%Yanagihara%NULL%1,               Youping%Deng%dengy@hawaii.edu%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,               Yeming%Wang%NULL%2,               Xingwang%Li%NULL%1,               Lili%Ren%NULL%1,               Jianping%Zhao%NULL%0,               Yi%Hu%NULL%2,               Li%Zhang%NULL%1,               Guohui%Fan%NULL%2,               Jiuyang%Xu%NULL%2,               Xiaoying%Gu%NULL%2,               Zhenshun%Cheng%NULL%2,               Ting%Yu%NULL%3,               Jiaan%Xia%NULL%1,               Yuan%Wei%NULL%2,               Wenjuan%Wu%NULL%1,               Xuelei%Xie%NULL%1,               Wen%Yin%NULL%1,               Hui%Li%NULL%2,               Min%Liu%NULL%1,               Yan%Xiao%NULL%1,               Hong%Gao%NULL%1,               Li%Guo%NULL%1,               Jungang%Xie%NULL%2,               Guangfa%Wang%NULL%1,               Rongmeng%Jiang%NULL%1,               Zhancheng%Gao%NULL%1,               Qi%Jin%NULL%1,               Jianwei%Wang%wangjw28@163.com%1,               Bin%Cao%caobin_ben@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Filippo%Lagi%NULL%1,               Matteo%Piccica%NULL%1,               Lucia%Graziani%NULL%1,               Iacopo%Vellere%NULL%1,               Annarita%Botta%NULL%1,               Marta%Tilli%NULL%1,               Letizia%Ottino%NULL%1,               Beatrice%Borchi%NULL%1,               Marco%Pozzi%NULL%1,               Filippo%Bartalesi%NULL%1,               Jessica%Mencarini%NULL%1,               Michele%Spinicci%NULL%1,               Lorenzo%Zammarchi%NULL%1,               Filippo%Pieralli%NULL%1,               Giovanni%Zagli%NULL%1,               Carlo%Nozzoli%NULL%1,               Stefano%Romagnoli%NULL%1,               Alessandro%Bartoloni%NULL%1,               NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,               Zhao-Wu%Tao%NULL%1,               Lei%Wang%NULL%1,               Ming-Li%Yuan%NULL%1,               Kui%Liu%NULL%0,               Ling%Zhou%NULL%0,               Shuang%Wei%NULL%0,               Yan%Deng%NULL%1,               Jing%Liu%NULL%1,               Hui-Guo%Liu%NULL%0,               Ming%Yang%NULL%1,               Yi%Hu%NULL%0,               Pei-Fang%Wei%NULL%0,               Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0,               Shuyun%Xu%NULL%1,               Muqing%Yu%NULL%1,               Ke%Wang%NULL%0,               Yu%Tao%NULL%1,               Ying%Zhou%NULL%1,               Jing%Shi%NULL%1,               Min%Zhou%NULL%0,               Bo%Wu%NULL%1,               Zhenyu%Yang%NULL%1,               Cong%Zhang%NULL%1,               Junqing%Yue%NULL%1,               Zhiguo%Zhang%NULL%1,               Harald%Renz%NULL%1,               Xiansheng%Liu%NULL%0,               Jungang%Xie%NULL%0,               Min%Xie%NULL%0,               Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang-kai%Li%doclyk@163.com%1,               Shu%Peng%NULL%1,               Le-qun%Li%NULL%1,               Qi%Wang%NULL%1,               Wei%Ping%NULL%1,               Ni%Zhang%NULL%1,               Xiang-ning%Fu%fuxn2006@aliyun.com%1]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,               Yuanyuan%Xing%NULL%1,               Yu%Xiao%NULL%1,               Liping%Deng%NULL%1,               Qiu%Zhao%NULL%1,               Hongling%Wang%NULL%1,               Yong%Xiong%NULL%1,               Zhenshun%Cheng%NULL%0,               Shicheng%Gao%NULL%1,               Ke%Liang%NULL%1,               Mingqi%Luo%NULL%1,               Tielong%Chen%NULL%1,               Shihui%Song%NULL%1,               Zhiyong%Ma%NULL%1,               Xiaoping%Chen%NULL%1,               Ruiying%Zheng%NULL%1,               Qian%Cao%NULL%1,               Fan%Wang%fanndywang@foxmail.com%1,               Yongxi%Zhang%znact1936@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Gaspar Manuel%Parra-Bracamonte%NULL%1,               Nicolas%Lopez-Villalobos%NULL%1,               Francisco E.%Parra-Bracamonte%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ishan%Paranjpe%NULL%2,               Adam J%Russak%NULL%2,               Adam J%Russak%NULL%0,               Jessica K%De Freitas%NULL%1,               Anuradha%Lala%NULL%1,               Riccardo%Miotto%NULL%1,               Akhil%Vaid%NULL%1,               Kipp W%Johnson%NULL%1,               Matteo%Danieletto%NULL%1,               Eddye%Golden%NULL%1,               Dara%Meyer%NULL%1,               Manbir%Singh%NULL%1,               Sulaiman%Somani%NULL%1,               Arjun%Kapoor%NULL%1,               Ross%O'Hagan%NULL%1,               Sayan%Manna%NULL%1,               Udit%Nangia%NULL%1,               Suraj K%Jaladanki%NULL%1,               Paul%O’Reilly%NULL%2,               Paul%O’Reilly%NULL%0,               Laura M%Huckins%NULL%1,               Patricia%Glowe%NULL%1,               Arash%Kia%NULL%1,               Prem%Timsina%NULL%1,               Robert M%Freeman%NULL%1,               Matthew A%Levin%NULL%1,               Jeffrey%Jhang%NULL%1,               Adolfo%Firpo%NULL%1,               Patricia%Kovatch%NULL%1,               Joseph%Finkelstein%NULL%1,               Judith A%Aberg%NULL%1,               Emilia%Bagiella%NULL%1,               Carol R%Horowitz%NULL%1,               Barbara%Murphy%NULL%1,               Zahi A%Fayad%NULL%1,               Jagat%Narula%NULL%1,               Eric J%Nestler%NULL%1,               V%Fuster%NULL%1,               Carlos%Cordon-Cardo%NULL%1,               Dennis%Charney%NULL%1,               David L%Reich%NULL%1,               Allan%Just%NULL%1,               Erwin P%Bottinger%NULL%1,               Alexander W%Charney%NULL%1,               Benjamin S%Glicksberg%NULL%1,               Girish N%Nadkarni%NULL%1,               NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Grace%Salacup%salacupg@einstein.edu%0,               Kevin Bryan%Lo%NULL%2,               Kevin Bryan%Lo%NULL%0,               Fahad%Gul%NULL%1,               Eric%Peterson%NULL%1,               Robert%De Joy%NULL%1,               Ruchika%Bhargav%NULL%1,               Jerald%Pelayo%NULL%1,               Jeri%Albano%NULL%1,               Zurab%Azmaiparashvili%NULL%1,               Sadia%Benzaquen%NULL%1,               Gabriel%Patarroyo‐Aponte%NULL%1,               Janani%Rangaswami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,               Mu%Qin%qinmuae@163.com%1,               Yuli%Cai%NULL%1,               Tao%Liu%NULL%1,               Bo%Shen%NULL%1,               Fan%Yang%NULL%1,               Sheng%Cao%NULL%1,               Xu%Liu%NULL%2,               Xu%Liu%NULL%0,               Yaozu%Xiang%NULL%1,               Qinyan%Zhao%NULL%1,               He%Huang%huanghe1977@whu.edu.cn%1,               Bo%Yang%yybb112@whu.edu.cn%1,               Congxin%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jennifer%Tomlins%NULL%1,               Fergus%Hamilton%NULL%1,               Samuel%Gunning%NULL%1,               Caitlin%Sheehy%NULL%1,               Ed%Moran%NULL%1,               Alastair%MacGowan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,               Yi%Xiang%NULL%1,               Wei%Fang%NULL%1,               Yu%Zheng%yuzheng1@cdutcm.edu.cn%1,               Boqun%Li%279685211@qq.com%2,               Boqun%Li%279685211@qq.com%0,               Yanjun%Hu%huyanjun@163.com%1,               Chunhui%Lang%NULL%1,               Daoqiu%Huang%NULL%1,               Qiuyan%Sun%NULL%1,               Yan%Xiong%NULL%1,               Xia%Huang%NULL%1,               Jinglong%Lv%NULL%1,               Yaling%Luo%NULL%1,               Li%Shen%NULL%1,               Haoran%Yang%NULL%1,               Gu%Huang%NULL%1,               Ruishan%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%5,               Wenbo%He%NULL%1,               Xiaomei%Yu%NULL%1,               Dalong%Hu%NULL%1,               Mingwei%Bao%NULL%1,               Huafen%Liu%NULL%1,               Jiali%Zhou%NULL%1,               Hong%Jiang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,               Bohan%Yang%NULL%1,               Qianwen%Li%NULL%1,               Lu%Wen%NULL%1,               Ruiguang%Zhang%zrg27@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Xisheng%Yan%NULL%0,               Fen%Li%NULL%1,               Xiao%Wang%NULL%1,               Jie%Yan%NULL%1,               Fen%Zhu%NULL%1,               Shifan%Tang%NULL%1,               Yingzhong%Deng%NULL%1,               Hua%Wang%NULL%1,               Rui%Chen%NULL%1,               Zhili%Yu%NULL%1,               Yaping%Li%NULL%1,               Jingzhou%Shang%NULL%1,               Lingjun%Zeng%NULL%1,               Jie%Zhao%NULL%1,               Chaokun%Guan%NULL%1,               Qiaomei%Liu%NULL%1,               Haifeng%Chen%NULL%1,               Wei%Gong%NULL%1,               Xin%Huang%NULL%1,               Yu‐Jiao%Zhang%NULL%1,               Jianguang%Liu%NULL%1,               Xiaoyan%Dong%NULL%1,               Wen%Zheng%zhengwen12@mails.jlu.edu.cn%1,               Shaoping%Nie%spnie@126.com%1,               Dongsheng%Li%dongshengli196809@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Ping%Yang%NULL%1,               Pengfei%Wang%NULL%2,               Pengfei%Wang%NULL%0,               Yuyan%Song%NULL%1,               An%Zhang%zhangan@hospital.cqmu.edu.cn%1,               Guodan%Yuan%71502294@qq.com%1,               Yong%Cui%754605155@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,               Yuan%Yu%NULL%1,               Jiqian%Xu%NULL%1,               Huaqing%Shu%NULL%1,               Jia'an%Xia%NULL%1,               Hong%Liu%NULL%1,               Yongran%Wu%NULL%1,               Lu%Zhang%NULL%1,               Zhui%Yu%NULL%1,               Minghao%Fang%NULL%1,               Ting%Yu%NULL%0,               Yaxin%Wang%NULL%1,               Shangwen%Pan%NULL%1,               Xiaojing%Zou%NULL%1,               Shiying%Yuan%NULL%1,               You%Shang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%3,               Chang%Hu%NULL%1,               Linjie%Luo%NULL%1,               Fang%Fang%NULL%1,               Yongfeng%Chen%NULL%1,               Jianguo%Li%NULL%1,               Zhiyong%Peng%NULL%1,               Huaqin%Pan%phq2012@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Jun%Zhang%NULL%1,               Miao%Yu%NULL%1,               Song%Tong%NULL%1,               Lu-Yu%Liu%NULL%1,               Liang-V.%Tang%lancet.tang@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Rui%Zhang%NULL%2,               Huangqing%Ouyang%NULL%1,               Lingli%Fu%NULL%1,               Shijie%Wang%NULL%1,               Jianglong%Han%NULL%1,               Kejie%Huang%NULL%1,               Mingfang%Jia%NULL%1,               Qibin%Song%NULL%1,               Zhenming%Fu%davidfuzming@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Zirun%Zhao%NULL%0,               Anne%Chen%NULL%1,               Wei%Hou%NULL%1,               James M.%Graham%NULL%1,               Haifang%Li%NULL%1,               Paul S.%Richman%NULL%1,               Henry C.%Thode%NULL%1,               Adam J.%Singer%NULL%1,               Tim Q.%Duong%NULL%1,               Muhammad%Adrish%NULL%9,               Muhammad%Adrish%NULL%0,               Muhammad%Adrish%NULL%0,               Muhammad%Adrish%NULL%0,               Muhammad%Adrish%NULL%0,               Muhammad%Adrish%NULL%0,               Muhammad%Adrish%NULL%0,               Muhammad%Adrish%NULL%0,               Muhammad%Adrish%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,               Ting%Yu%NULL%0,               Ronghui%Du%NULL%1,               Guohui%Fan%NULL%0,               Ying%Liu%NULL%1,               Zhibo%Liu%NULL%1,               Jie%Xiang%NULL%0,               Yeming%Wang%NULL%0,               Bin%Song%NULL%1,               Xiaoying%Gu%NULL%0,               Lulu%Guan%NULL%1,               Yuan%Wei%NULL%0,               Hui%Li%NULL%0,               Xudong%Wu%NULL%1,               Jiuyang%Xu%NULL%0,               Shengjin%Tu%NULL%1,               Yi%Zhang%NULL%1,               Hua%Chen%NULL%1,               Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sulaiman%Almazeedi%NULL%0, Sarah%Al-Youha%sarahalyouha@gmail.com%2, Mohammad H.%Jamal%NULL%2, Mohannad%Al-Haddad%NULL%2, Ali%Al-Muhaini%NULL%2, Fahad%Al-Ghimlas%NULL%2, Salman%Al-Sabah%NULL%2]</t>
+  </si>
+  <si>
+    <t>Elsevier</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0, Samuel L%Bruce%NULL%0, Cody L%Slater%NULL%0, Jonathan R%Tiao%NULL%0, Matthew R%Baldwin%NULL%0, R Graham%Barr%NULL%0, Bernard P%Chang%NULL%0, Katherine H%Chau%NULL%0, Justin J%Choi%NULL%0, Nicholas%Gavin%NULL%0, Parag%Goyal%NULL%0, Angela M%Mills%NULL%0, Ashmi A%Patel%NULL%0, Marie-Laure S%Romney%NULL%0, Monika M%Safford%NULL%0, Neil W%Schluger%NULL%0, Soumitra%Sengupta%NULL%0, Magdalena E%Sobieszczyk%NULL%0, Jason E%Zucker%NULL%0, Paul A%Asadourian%NULL%0, Fletcher M%Bell%NULL%0, Rebekah%Boyd%NULL%0, Matthew F%Cohen%NULL%0, MacAlistair I%Colquhoun%NULL%0, Lucy A%Colville%NULL%0, Joseph H%de Jonge%NULL%0, Lyle B%Dershowitz%NULL%0, Shirin A%Dey%NULL%0, Katherine A%Eiseman%NULL%0, Zachary P%Girvin%NULL%0, Daniella T%Goni%NULL%0, Amro A%Harb%NULL%0, Nicholas%Herzik%NULL%0, Sarah%Householder%NULL%0, Lara E%Karaaslan%NULL%0, Heather%Lee%NULL%0, Evan%Lieberman%NULL%0, Andrew%Ling%NULL%0, Ree%Lu%NULL%0, Arthur Y%Shou%NULL%0, Alexander C%Sisti%NULL%0, Zachary E%Snow%NULL%0, Colin P%Sperring%NULL%0, Yuqing%Xiong%NULL%0, Henry W%Zhou%NULL%0, Karthik%Natarajan%NULL%0, George%Hripcsak%NULL%0, Ruijun%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>BMJ Publishing Group Ltd.</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0, Mark%Caridi-Scheible%NULL%0, James M.%Blum%NULL%0, Chad%Robichaux%NULL%0, Colleen%Kraft%NULL%0, Jesse T.%Jacob%NULL%0, Craig S.%Jabaley%NULL%0, David%Carpenter%NULL%0, Roberta%Kaplow%NULL%0, Alfonso C.%Hernandez-Romieu%NULL%0, Max W.%Adelman%NULL%0, Greg S.%Martin%NULL%0, Craig M.%Coopersmith%NULL%0, David J.%Murphy%NULL%0, NULL%NULL%NULL%0, NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>Lippincott Williams &amp;amp; Wilkins</t>
+  </si>
+  <si>
+    <t>[Juan%Berenguer%NULL%2, Pablo%Ryan%NULL%0, Jesús%Rodríguez-Baño%NULL%1, Inmaculada%Jarrín%NULL%4, Jordi%Carratalà%NULL%4, Jerónimo%Pachón%NULL%0, María%Yllescas%NULL%1, José Ramón%Arriba%NULL%1, NULL%NULL%NULL%0, Esther%Aznar Muñoz%NULL%1, Pedro%Gil Divasson%NULL%1, Patricia%González Muñiz%NULL%1, Clara%Muñoz Aguirre%NULL%1, Juan Carlos%López%NULL%3, Juan Carlos%López%NULL%0, Juan Carlos%López%NULL%0, Margarita%Ramírez-Schacke%NULL%1, Isabel%Gutiérrez%NULL%1, Francisco%Tejerina%NULL%1, Teresa%Aldámiz-Echevarría%NULL%1, Cristina%Díez%NULL%1, Chiara%Fanciulli%NULL%1, Leire%Pérez-Latorre%NULL%1, Francisco%Parras%NULL%1, Pilar%Catalán%NULL%1, María E.%García-Leoni%NULL%1, Isabel%Pérez-Tamayo%NULL%1, Luis%Puente%NULL%1, Jamil%Cedeño%NULL%1, Juan%Berenguer%NULL%0, Marta%Díaz Menéndez%NULL%3, Marta%Díaz Menéndez%NULL%0, Marta%Díaz Menéndez%NULL%0, Fernando%de la Calle Prieto%NULL%1, Marta%Arsuaga Vicente%NULL%1, Elena%Trigo Esteban%NULL%1, Mª del Mar%Lago Núñez%NULL%1, Rosa%de Miguel Buckley%NULL%1, Julen%Cadiñaños Loidi%NULL%1, Carmen%Busca Arenzana%NULL%1, Alfredo%Mican%NULL%1, Marta%Mora Rillo%NULL%1, Juan Carlos%Ramos Ramos%NULL%1, Belén%Loeches Yagüe%NULL%1, José Ignacio%Bernardino de la Serna%NULL%1, Julio%García Rodríguez%NULL%1, José Ramón%Arribas López%NULL%1, Ana%Such Diaz%NULL%3, Ana%Such Diaz%NULL%0, Ana%Such Diaz%NULL%0, Elena%Álvaro Alonso%NULL%1, Elsa%Izquierdo García%NULL%1, Juan%Torres Macho%NULL%1, Guillermo%Cuevas Tascon%NULL%1, Jesús%Troya García%NULL%1, Beatriz%Mestre Gómez%NULL%1, Eva%Jiménez González de Buitrago%NULL%1, Inés%Fernández Jiménez%NULL%1, Ana Josefa%Tebar Martínez%NULL%1, Fátima%Brañas Baztán%NULL%1, Jorge%Valencia de la Rosa%NULL%1, Mario%Pérez Butragueño%NULL%1, Marta%Alvarado Blasco%NULL%1, Pablo%Ryan%NULL%0, Mª Antonia%Sepúlveda Berrocal%NULL%3, Mª Antonia%Sepúlveda Berrocal%NULL%0, Mª Antonia%Sepúlveda Berrocal%NULL%0, Carmen%Yera Bergua%NULL%1, Pilar%Toledano Sierra%NULL%1, Verónica%Cano Llorente%NULL%1, Sadaf%Zafar Iqubal-Mirza%NULL%1, Gema%Muñiz%NULL%1, Inmaculada%Martín Pérez%NULL%1, Helena%Mozas Moriñigo%NULL%1, Ana%Alguacil%NULL%1, María Paz%García Butenegro%NULL%1, Ana Isabel%Peláez Ballesta%NULL%3, Ana Isabel%Peláez Ballesta%NULL%0, Ana Isabel%Peláez Ballesta%NULL%0, Elena%Morcillo Rodríguez%NULL%1, Josune%Goikoetxea Agirre%NULL%3, Josune%Goikoetxea Agirre%NULL%0, Josune%Goikoetxea Agirre%NULL%0, María José%Blanco Vidal%NULL%1, Javier%Nieto Arana%NULL%1, Mikel%del Álamo Martínez de Lagos%NULL%1, Isabel A.%Pérez Hernández%NULL%3, Isabel A.%Pérez Hernández%NULL%0, Isabel A.%Pérez Hernández%NULL%0, Inés%Pérez Zapata%NULL%1, Rafael%Silvariño Fernández%NULL%3, Rafael%Silvariño Fernández%NULL%0, Rafael%Silvariño Fernández%NULL%0, Jon%Ugalde Espiñeira%NULL%1, Víctor%Asensi Álvarez%NULL%3, Víctor%Asensi Álvarez%NULL%0, Víctor%Asensi Álvarez%NULL%0, Lucia%Suárez Pérez%NULL%1, Silvia%Suárez Diaz%NULL%1, Carmen%Yllera Gutiérrez%NULL%1, Vicente%Boix%NULL%3, Vicente%Boix%NULL%0, Vicente%Boix%NULL%0, Marcos%Díez Martínez%NULL%1, Melissa%Carreres Candela%NULL%1, Cristina%Gómez-Ayerbe%NULL%3, Cristina%Gómez-Ayerbe%NULL%0, Cristina%Gómez-Ayerbe%NULL%0, Javier%Sánchez-Lora%NULL%1, José Luis%Velasco Garrido%NULL%1, María%López-Jódar%NULL%1, Jesús%Santos González%NULL%1, Jesús%Ruiz Aragón%NULL%3, Jesús%Ruiz Aragón%NULL%0, Jesús%Ruiz Aragón%NULL%0, Ianire%Virto Peña%NULL%1, Vanessa%Alende Castro%NULL%3, Vanessa%Alende Castro%NULL%0, Vanessa%Alende Castro%NULL%0, Ruth%Brea Aparicio%NULL%1, Sonia%Vega Molpeceres%NULL%3, Sonia%Vega Molpeceres%NULL%0, Sonia%Vega Molpeceres%NULL%0, Estel%Pons Viñas%NULL%1, Oscar%del Río Pérez%NULL%3, Oscar%del Río Pérez%NULL%0, Oscar%del Río Pérez%NULL%0, Silvia%Valero Rovira%NULL%1, Judit%Villar-García%NULL%3, Judit%Villar-García%NULL%0, Judit%Villar-García%NULL%0, Joan%Gómez-Junyent%NULL%1, Hernando%Knobel%NULL%1, María Cecilia%Cánepa%NULL%1, Silvia%Castañeda Espinosa%NULL%1, Luisa%Sorli Redò%NULL%1, Roberto%Güerri-Fernández%NULL%1, María%Milagro Montero%NULL%1, Juan Pablo%Horcajada%NULL%1, Elisa%García Vázquez%NULL%3, Elisa%García Vázquez%NULL%0, Elisa%García Vázquez%NULL%0, Encarnación%Moral Escudero%NULL%1, Alicia%Hernández Torres%NULL%1, Esther%García Almodóvar%NULL%3, Esther%García Almodóvar%NULL%0, Esther%García Almodóvar%NULL%0, Carmen%Sáez Barberá%NULL%3, Carmen%Sáez Barberá%NULL%0, Carmen%Sáez Barberá%NULL%0, Zineb%Karroud%NULL%1, José%Hernández Quero%NULL%3, José%Hernández Quero%NULL%0, José%Hernández Quero%NULL%0, David%Vinuesa García%NULL%1, José Luis%García Fogeda%NULL%1, José Antonio%Peregrina%NULL%1, María%Novella Mena%NULL%3, María%Novella Mena%NULL%0, María%Novella Mena%NULL%0, Cristina%Hernández Gutiérrez%NULL%1, José%Sanz Moreno%NULL%1, Ramón%Pérez Tanoira%NULL%1, Rodrigo%Sierra Rodríguez%NULL%1, David%Alonso Menchén%NULL%1, Aida%Gutiérrez García%NULL%1, Alberto%Arranz Caso%NULL%1, Juan%Cuadros González%NULL%1, Melchor%Álvarez de Mon Soto%NULL%1, Vicente Ferrer%Díaz de Brito Fernández%NULL%3, Vicente Ferrer%Díaz de Brito Fernández%NULL%0, Vicente Ferrer%Díaz de Brito Fernández%NULL%0, Montserrat%Sanmarti Vilamala%NULL%1, Aina%Gabarrell Pascuet%NULL%1, Daniel%Molina Morant%NULL%1, Sergio%España Cueto%NULL%1, Jonathan%Cámara Fernández%NULL%1, Albert%Sabater Gil%NULL%1, Laura%Muñoz López%NULL%1, Paula%Sáez Escolano%NULL%3, Paula%Sáez Escolano%NULL%0, Paula%Sáez Escolano%NULL%0, Esperanza%Bejarano Tello%NULL%1, Marco Antonio%Sempere Alcocer%NULL%3, Marco Antonio%Sempere Alcocer%NULL%0, Marco Antonio%Sempere Alcocer%NULL%0, Salvador%Álvarez Martin%NULL%1, Ignacio%De los Santos Gil%NULL%3, Ignacio%De los Santos Gil%NULL%0, Ignacio%De los Santos Gil%NULL%0, Lucio%García-Fraile%NULL%1, Miguel%Sampedro Núñez%NULL%1, Ana%Barrios Blandino%NULL%1, Carlos%Rodríguez Franco%NULL%1, Daniel%Useros Brañas%NULL%1, Almudena%Villa Martí%NULL%1, Javier%Oliver Ortega%NULL%1, Alexia%Costanza Espiño Álvarez%NULL%1, Jesús%Sanz Sanz%NULL%1, María%Rexach Fumaña%NULL%3, María%Rexach Fumaña%NULL%0, María%Rexach Fumaña%NULL%0, Ivette%Abascal Cambras%NULL%1, Ana del Cielo%Pérez Jaén%NULL%1, Clara%Sala Jofre%NULL%3, Clara%Sala Jofre%NULL%0, Clara%Sala Jofre%NULL%0, Susana%Casas Rodríguez%NULL%1, Cecilia%Tortajada Alamilla%NULL%3, Cecilia%Tortajada Alamilla%NULL%0, Cecilia%Tortajada Alamilla%NULL%0, Carmina%Oltra%NULL%1, Mar%Masiá Canuto%NULL%3, Mar%Masiá Canuto%NULL%0, Mar%Masiá Canuto%NULL%0, Félix%Gutiérrez Rodero%NULL%1, Ana%Ferrer Ribera%NULL%3, Ana%Ferrer Ribera%NULL%0, Ana%Ferrer Ribera%NULL%0, Carlos%Bea Serrano%NULL%1, Miguel%Pedromingo Kus%NULL%3, Miguel%Pedromingo Kus%NULL%0, Miguel%Pedromingo Kus%NULL%0, María Ángeles%Garcinuño%NULL%1, Silvana%Fiorante%NULL%1, Sergio%Pérez Pinto%NULL%1, Pilar%Hernández Machín%NULL%3, Pilar%Hernández Machín%NULL%0, Pilar%Hernández Machín%NULL%0, Alba%Alastrué Violeta%NULL%1, María Carmen%Fariñas Álvarez%NULL%3, María Carmen%Fariñas Álvarez%NULL%0, María Carmen%Fariñas Álvarez%NULL%0, Claudia%González Rico%NULL%1, Francisco%Arnaiz de las Revillas%NULL%1, Jorge%Calvo%NULL%1, Mónica%Gozalo%NULL%1, Francisco%Mora Gómez%NULL%3, Francisco%Mora Gómez%NULL%0, Francisco%Mora Gómez%NULL%0, Ana%Milagro Beamonte%NULL%3, Ana%Milagro Beamonte%NULL%0, Ana%Milagro Beamonte%NULL%0, Miriam%Latorre-Millán%NULL%1, Antonio%Rezusta López%NULL%1, Ana%Martínez Sapiña%NULL%1, Yolanda%Meije%NULL%3, Yolanda%Meije%NULL%0, Yolanda%Meije%NULL%0, Alejandra%Duarte Borges%NULL%1, Julia%Pareja Coca%NULL%1, Mercedes%Clemente Presas%NULL%1, Juan Emilio%Losa García%NULL%3, Juan Emilio%Losa García%NULL%0, Juan Emilio%Losa García%NULL%0, Ana%Vegas Serrano%NULL%1, M. Teresa%Pérez-Rodríguez%NULL%3, M. Teresa%Pérez-Rodríguez%NULL%0, M. Teresa%Pérez-Rodríguez%NULL%0, Alexandre%Pérez González%NULL%1, Moncef%Belhassen-García%NULL%3, Moncef%Belhassen-García%NULL%0, Moncef%Belhassen-García%NULL%0, Beatriz%Rodríguez-Alonso%NULL%1, Amparo%López-Bernus%NULL%1, Cristina%Carbonell%NULL%1, Rafael%Torres Perea%NULL%3, Rafael%Torres Perea%NULL%0, Rafael%Torres Perea%NULL%0, Juan%Cantón de Seoane%NULL%1, Blanca%Alonso%NULL%1, Sara Lidia%Kamal%NULL%1, Lucia%Cajuela%NULL%1, David%Roa%NULL%1, Miguel%Cervero%NULL%1, Alberto%Oreja%NULL%1, Juan Pablo%Avilés%NULL%1, Lidia%Martín%NULL%1, Iván%Pelegrín Senent%NULL%3, Iván%Pelegrín Senent%NULL%0, Iván%Pelegrín Senent%NULL%0, Rosana%Rouco Esteves Marques%NULL%1, Jorge%Parra Ruiz%NULL%3, Jorge%Parra Ruiz%NULL%0, Jorge%Parra Ruiz%NULL%0, Violeta%Ramos Sesma%NULL%1, Jessica%Abadia Otero%NULL%3, Jessica%Abadia Otero%NULL%0, Jessica%Abadia Otero%NULL%0, Juan%Salillas Hernando%NULL%3, Juan%Salillas Hernando%NULL%0, Juan%Salillas Hernando%NULL%0, Robert%Torres Sánchez del Arco%NULL%1, Miguel%Torralba González de Suso%NULL%1, Alberto%Serrano Martínez%NULL%1, Sergio%Gilaberte Reyzábal%NULL%1, Marina%Pacheco Martínez-Atienza%NULL%1, Mónica%Liébana Gómez%NULL%1, Sara%Fernández Rodríguez%NULL%1, Álvaro%Varela Plaza%NULL%1, Henar%Calvo Sánchez%NULL%1, Patricia%Martínez Martín%NULL%3, Patricia%Martínez Martín%NULL%0, Patricia%Martínez Martín%NULL%0, Patricia%González- Ruano%NULL%1, Eduardo%Malmierca Corral%NULL%1, Isabel%Rábago Lorite%NULL%1, Beatriz%Pérez-Monte Mínguez%NULL%1, Ángeles%García Flores%NULL%3, Ángeles%García Flores%NULL%0, Ángeles%García Flores%NULL%0, Pere%Comas Casanova%NULL%1, Merce%Sirisi%NULL%3, Merce%Sirisi%NULL%0, Merce%Sirisi%NULL%0, Richard%Rojas%NULL%1, José Luis%Díaz de Tuesta del Arco%NULL%3, José Luis%Díaz de Tuesta del Arco%NULL%0, José Luis%Díaz de Tuesta del Arco%NULL%0, Ruth%Figueroa Cerón%NULL%1, Ander%González Sarria%NULL%1, Remedios%Alemán Valls%NULL%3, Remedios%Alemán Valls%NULL%0, Remedios%Alemán Valls%NULL%0, María del Mar%Alonso Socas%NULL%1, Oscar%Sanz Peláez%NULL%3, Oscar%Sanz Peláez%NULL%0, Oscar%Sanz Peláez%NULL%0, Karim%Mohamed Ramírez%NULL%1, Melchor%Riera Jaume%NULL%3, Melchor%Riera Jaume%NULL%0, Melchor%Riera Jaume%NULL%0, Helem Haydee%Vilchez%NULL%1, Francesc%Albertí%NULL%1, Ana Isabel%Cañabate%NULL%1, Víctor J.%Moreno Cuerda%NULL%3, Víctor J.%Moreno Cuerda%NULL%0, Víctor J.%Moreno Cuerda%NULL%0, Silvia%Álvarez Kaelis%NULL%1, Beatriz%Álvarez Zapatero%NULL%1, Alejandro%García García%NULL%1, Elena%Isaba Ares%NULL%1, Covadonga%Morcate Fernández%NULL%1, Andrea%Pérez Rodríguez%NULL%1, Lucía%Ramos Merino%NULL%3, Lucía%Ramos Merino%NULL%0, Lucía%Ramos Merino%NULL%0, Laura%Castelo Corral%NULL%1, María%Rodríguez Mahía%NULL%1, Mónica%González Bardanca%NULL%1, Efrén%Sánchez Vidal%NULL%1, Enrique%Míguez Rey%NULL%1, Javier%De la Torre Lima%NULL%3, Javier%De la Torre Lima%NULL%0, Javier%De la Torre Lima%NULL%0, José Mª%García de Lomas Guerrero%NULL%1, Elena%Morte%NULL%3, Elena%Morte%NULL%0, Elena%Morte%NULL%0, Silvia%Loscos%NULL%1, Ana%Camón%NULL%1, Lucía%Gómez García%NULL%3, Lucía%Gómez García%NULL%0, Lucía%Gómez García%NULL%0, Lucia%Boix Palop%NULL%1, Beatriz%Dietl Gómez-Luengo%NULL%1, Iris%Pedrola Gorrea%NULL%3, Iris%Pedrola Gorrea%NULL%0, Iris%Pedrola Gorrea%NULL%0, Amparo%Blasco Claramunt%NULL%1, Cristina%López Mestanza%NULL%3, Cristina%López Mestanza%NULL%0, Cristina%López Mestanza%NULL%0, Esther%Fraile Villarejo%NULL%1, Tomás%Tosco Núñez%NULL%3, Tomás%Tosco Núñez%NULL%0, Tomás%Tosco Núñez%NULL%0, María%Aroca Ferri%NULL%1, José Tomas%Algado Rabasa%NULL%3, José Tomas%Algado Rabasa%NULL%0, José Tomas%Algado Rabasa%NULL%0, Ana María%Garijo Saiz%NULL%1, Concepción%Amador Prous%NULL%1, Jesús Rodriguez%Baño%NULL%3, Jesús Rodriguez%Baño%NULL%0, Jesús Rodriguez%Baño%NULL%0, Pilar%Retamar%NULL%1, Adoración%Valiente%NULL%1, Luis E.%López-Cortés%NULL%1, Jesús%Sojo%NULL%1, Belén%Gutiérrez-Gutiérrez%NULL%1, José%Bravo-Ferrer%NULL%1, Elena%Salamanca%NULL%1, Zaira R.%Palacios%NULL%1, Patricia%Pérez-Palacios%NULL%1, Enrique%Peral%NULL%1, José Antonio%Pérez de León%NULL%1, Jesús%Sánchez-Gómez%NULL%1, Lucía%Marín-Barrera%NULL%1, Domingo%García-Jiménez%NULL%1, Jordi%Carratalà%NULL%0, Jordi%Carratalà%NULL%0, Jordi%Carratalà%NULL%0, Gabriela%Abelenda-Alonso%NULL%1, Carmen%Ardanuy%NULL%1, Alba%Bergas%NULL%1, Guillermo%Cuervo%NULL%1, María Ángeles%Domínguez%NULL%1, Miguel%Fernández-Huerta%NULL%1, Carlota%Gudiol%NULL%1, Laia%Lorenzo-Esteller%NULL%1, Jordi%Niubó%NULL%1, Sandra%Pérez-Recio%NULL%1, Daniel%Podzamczer%NULL%1, Miquel%Pujol%NULL%1, Alexander%Rombauts%NULL%1, Núria%Trullen%NULL%1, Miguel%Salavert Lletí%NULL%3, Miguel%Salavert Lletí%NULL%0, Miguel%Salavert Lletí%NULL%0, Iván%Castro Hernández%NULL%1, Adriana%Hernández Belmonte%NULL%3, Adriana%Hernández Belmonte%NULL%0, Adriana%Hernández Belmonte%NULL%0, Raquel%Martínez Goñi%NULL%1, Marta%Navarro Vilasaró%NULL%3, Marta%Navarro Vilasaró%NULL%0, Marta%Navarro Vilasaró%NULL%0, Sonia%Calzado Isbert%NULL%1, Manuel%Cervantes García%NULL%1, Aina%Gomila Grange%NULL%1, Oriol%Gasch Blasi%NULL%1, María Luisa%Machado Sicilia%NULL%1, Eva%Van den Eynde Otero%NULL%1, Luis%Falgueras López%NULL%1, María del Carmen%Navarro Sáez%NULL%1, Esteban%Martínez%NULL%3, Esteban%Martínez%NULL%0, Esteban%Martínez%NULL%0, Mª Ángeles%Marcos%NULL%1, Mar%Mosquera%NULL%1, José Luis%Blanco%NULL%1, Montserrat%Laguno%NULL%1, Jhon%Rojas%NULL%1, Ana%González-Cordón%NULL%1, Alexy%Inciarte%NULL%1, Berta%Torres%NULL%1, Lorena%De la Mora%NULL%1, Alex%Soriano%NULL%0, Olalla%Martínez Macias%NULL%3, Olalla%Martínez Macias%NULL%0, Olalla%Martínez Macias%NULL%0, Virginia%Pérez Doñate%NULL%1, Alfonso%Cabello Úbeda%NULL%3, Alfonso%Cabello Úbeda%NULL%0, Alfonso%Cabello Úbeda%NULL%0, Nerea%Carrasco Antón%NULL%1, Beatriz%Álvarez Álvarez%NULL%1, Elizabet%Petkova Saiz%NULL%1, Miguel%Górgolas Hernández-Mora%NULL%1, Laura%Prieto Pérez%NULL%1, Irene%Carrillo Acosta%NULL%1, Sara%Heili Frades%NULL%1, Felipe%Villar Álvarez%NULL%1, Ricardo%Fernández Roblas%NULL%1, José María%Milicua Muñoz%NULL%1, Virginia%Fernández Espinilla%NULL%3, Virginia%Fernández Espinilla%NULL%0, Virginia%Fernández Espinilla%NULL%0, Carlos Jesús%Dueñas Gutiérrez%NULL%1, Cristina%Hernán García%NULL%1, Fernando%González-Romo%NULL%3, Fernando%González-Romo%NULL%0, Fernando%González-Romo%NULL%0, Paloma%Merino Amador%NULL%1, Alba%Rueda López%NULL%1, Jorge%Martínez Jordán%NULL%1, Sara%Medrano Pardo%NULL%1, Irene%Díaz de la Torre%NULL%1, Yolanda%Posada Franco%NULL%1, Alberto%Delgado-Iribarren%NULL%1, Joaquín%López-Contreras González%NULL%3, Joaquín%López-Contreras González%NULL%0, Joaquín%López-Contreras González%NULL%0, Pablo%Pascual Alonso%NULL%1, Virginia%Pomar Solchaga%NULL%1, Nuria%Rabella García%NULL%1, Natividad%Benito Hernández%NULL%1, Pere%Domingo Pedrol%NULL%1, Xavier%Bonfill Cosp%NULL%1, Rafael%Padrós Selma%NULL%1, Mireia%Puig Campmany%NULL%1, Jordi%Mancebo Cortés%NULL%1, Mercè%Gurguí Ferrer%NULL%1, Melania%Íñigo Pestaña%NULL%3, Melania%Íñigo Pestaña%NULL%0, Melania%Íñigo Pestaña%NULL%0, Alejandra%Pérez García%NULL%1, Patricia%Sorní Moreno%NULL%3, Patricia%Sorní Moreno%NULL%0, Patricia%Sorní Moreno%NULL%0, Nora%Izko Gartzia%NULL%1, Francisco Javier%Membrillo de Novales%NULL%3, Francisco Javier%Membrillo de Novales%NULL%0, Francisco Javier%Membrillo de Novales%NULL%0, María%Simón Sacristán%NULL%1, Maribel%Zamora Cintas%NULL%1, Yolanda%Martínez Martínez%NULL%1, Pablo%Fernández-González%NULL%1, Francisco%Alcántara Nicolás%NULL%1, Alejandro%Aguirre Vila-Cora%NULL%1, Elena%López Tizón%NULL%1, Germán%Ramírez-Olivencia%NULL%1, Miriam%Estébanez Muñoz%NULL%1, Ester%Sáez de Adana Arróniz%NULL%3, Ester%Sáez de Adana Arróniz%NULL%0, Ester%Sáez de Adana Arróniz%NULL%0, Joseba%Portu Zapirain%NULL%1, Juan Carlos%Gainzarain Arana%NULL%1, Zuriñe%Ortiz de Zárate Ibarra%NULL%1, Miguel Ángel%Moran Rodríguez%NULL%1, Andrés%Canut Blasco%NULL%1, Silvia%Hernáez Crespo%NULL%1, Leire%Balerdi Sarasola%NULL%1, Cristina%Morales García%NULL%1, Miguel%Corral Saracho%NULL%1, Zeltia%Valcarce González%NULL%1, Noelia%Arenal Andrés%NULL%3, Noelia%Arenal Andrés%NULL%0, Noelia%Arenal Andrés%NULL%0, Raquel Elisa%Rodríguez Tarazona%NULL%1, Laura%Iglesias Llorente%NULL%3, Laura%Iglesias Llorente%NULL%0, Laura%Iglesias Llorente%NULL%0, Beatriz%Loureiro Rodríguez%NULL%1, Adrián%Sánchez Montalvá%NULL%3, Adrián%Sánchez Montalvá%NULL%0, Adrián%Sánchez Montalvá%NULL%0, Juan%Espinosa Pereiro%NULL%1, Benito%Almirante%NULL%0, Marta%Miarons%NULL%1, Júlia%Sellarés%NULL%1, María%Larrosa%NULL%1, Sonia%García%NULL%1, Blanca%Marzo%NULL%1, Miguel%Villamarín%NULL%1, Nuria%Fernández%NULL%1, Conchita%Pérez-Jorge Peremarch%NULL%3, Conchita%Pérez-Jorge Peremarch%NULL%0, Conchita%Pérez-Jorge Peremarch%NULL%0, Elena%Resino Foz%NULL%1, Andrea%Espigares Correa%NULL%1, Teresa%Álvarez de Espejo Montiel%NULL%1, Iván%Navas Clemente%NULL%1, María Isabel%Quijano Contreras%NULL%1, Luis Alberto%Nieto Fernández del Campo%NULL%1, Guillermo%Jiménez Álvarez%NULL%1, Mercedes%Guillamón Sánchez%NULL%3, Mercedes%Guillamón Sánchez%NULL%0, Mercedes%Guillamón Sánchez%NULL%0, Josefina%García García%NULL%1, Constanza%Muñoz Hornero%NULL%3, Constanza%Muñoz Hornero%NULL%0, Constanza%Muñoz Hornero%NULL%0, Ana%Mariño Callejo%NULL%3, Ana%Mariño Callejo%NULL%0, Ana%Mariño Callejo%NULL%0, Nieves%Valcarce Pardeiro%NULL%1, Alex%Smithson Amat%NULL%3, Alex%Smithson Amat%NULL%0, Alex%Smithson Amat%NULL%0, Cristina%Chico Chumillas%NULL%1, Adriana%Sánchez Serrano%NULL%3, Adriana%Sánchez Serrano%NULL%0, Adriana%Sánchez Serrano%NULL%0, Eva Pilar%García Villalba%NULL%1, Isabel%Jiménez Martínez%NULL%3, Isabel%Jiménez Martínez%NULL%0, Isabel%Jiménez Martínez%NULL%0, Guillermo%Estrada Fernández%NULL%1, María%Lorén Vargas%NULL%1, Nuria%Parra Arribas%NULL%1, Carmen%Martínez Cilleros%NULL%1, Aránzazu%Villasante de la Puente%NULL%1, Teresa%García Delange%NULL%1, María José%Ruiz Rodríguez%NULL%1, Marta%Robledo del Prado%NULL%1, Juan Carlos%Abad Almendro%NULL%1, José Román%Muñoz del Rey%NULL%3, José Román%Muñoz del Rey%NULL%0, José Román%Muñoz del Rey%NULL%0, Montaña%Jiménez Álvaro%NULL%1, Javier%Coy Coy%NULL%3, Javier%Coy Coy%NULL%0, Javier%Coy Coy%NULL%0, Inmaculada%Poquet Catala%NULL%1, Marta%Santos Peña%NULL%3, Marta%Santos Peña%NULL%0, Marta%Santos Peña%NULL%0, Virginia%Naranjo Velasco%NULL%1, Tamara%Manso Gómez%NULL%3, Tamara%Manso Gómez%NULL%0, Tamara%Manso Gómez%NULL%0, Delia%Quilez Ágreda%NULL%1, Gema%Barbeito Castiñeiras%NULL%3, Gema%Barbeito Castiñeiras%NULL%0, Gema%Barbeito Castiñeiras%NULL%0, María Jesús%Domínguez Santalla%NULL%1, Laura%Mao Martín%NULL%3, Laura%Mao Martín%NULL%0, Laura%Mao Martín%NULL%0, Rodrigo%Alonso Navarro%NULL%1, Jose David%Ampuero Martinich%NULL%1, Raquel%Barrós González%NULL%1, María Aránzazu%Galindo Martín%NULL%1, Lourdes%Herrera Pacheco%NULL%1, Rocío%Martínez Avilés%NULL%1, Sara%Rodrigo González%NULL%1, Cristóbal Manuel%Rodríguez Leal%NULL%1, Eva María%Romay Lema%NULL%3, Eva María%Romay Lema%NULL%0, Eva María%Romay Lema%NULL%0, Roi%Suárez Gil%NULL%1, Maialen%Ibarguren Pinilla%NULL%3, Maialen%Ibarguren Pinilla%NULL%0, Maialen%Ibarguren Pinilla%NULL%0, José María%Marimón Ortiz de Zárate%NULL%1, Loreto%Vidaur Tello%NULL%1, Xabier%Kortajarena Urkola%NULL%1, Miriam%García Gómez%NULL%3, Miriam%García Gómez%NULL%0, Miriam%García Gómez%NULL%0, Asier%Aranguren Arostegui%NULL%1, Maria%Álvarez de Castro%NULL%3, Maria%Álvarez de Castro%NULL%0, Maria%Álvarez de Castro%NULL%0, Cintia María%Martínez Mateu%NULL%1, Francisco%Rodríguez Gómez%NULL%3, Francisco%Rodríguez Gómez%NULL%0, Francisco%Rodríguez Gómez%NULL%0, Francisco%Muñoz Beamud%NULL%1, Elena%Chamarro Martí%NULL%3, Elena%Chamarro Martí%NULL%0, Elena%Chamarro Martí%NULL%0, Merce%Cardona Rivera%NULL%1, Ismail%Zakariya-Yousef Breval%NULL%3, Ismail%Zakariya-Yousef Breval%NULL%0, Ismail%Zakariya-Yousef Breval%NULL%0, Marta%Rico Rodríguez%NULL%1, Jara%Llenas García%NULL%3, Jara%Llenas García%NULL%0, Jara%Llenas García%NULL%0, Mª Carmen%Sánchez Arenas%NULL%1, Ana%Fernández Cruz%NULL%3, Ana%Fernández Cruz%NULL%0, Ana%Fernández Cruz%NULL%0, Jorge%Calderón Parra%NULL%1, Marcos%López Dosil%NULL%1, Antonio%Ramos Martínez%NULL%1, Elena%Múñez Rubio%NULL%1, Alejandro%Callejas Díaz%NULL%1, José Manuel%Vázquez Comendador%NULL%1, Itziar%Diego Yagüe%NULL%1, Esther%Expósito Palomo%NULL%1, Jorge%Anel Pedroche%NULL%1, Raquel%Álvarez Franco%NULL%3, Raquel%Álvarez Franco%NULL%0, Raquel%Álvarez Franco%NULL%0, Lucía%Fernández de Orueta%NULL%1, Roberto%Vates Gómez%NULL%1, Andrés Felipe%Cardona Arias%NULL%1, Pablo%Marguenda Contreras%NULL%1, Gabriel%Gaspar Alonso-Vega%NULL%1, Elena María%Aranda Rife%NULL%1, Blanca%Martínez Cifre%NULL%1, Daniel%Roger Zapata%NULL%1, Irene%Martín Rubio%NULL%1, André%Barbosa Ventura%NULL%3, André%Barbosa Ventura%NULL%0, André%Barbosa Ventura%NULL%0, Iván%Piñero%NULL%1, Alberto%Bahamonde Carrasco%NULL%3, Alberto%Bahamonde Carrasco%NULL%0, Alberto%Bahamonde Carrasco%NULL%0, Paula%Runza Buznego%NULL%1, Eva%Talavera García%NULL%3, Eva%Talavera García%NULL%0, Eva%Talavera García%NULL%0, Marta%Lamata Subero%NULL%1, Ainhoa%Urrutia Losada%NULL%3, Ainhoa%Urrutia Losada%NULL%0, Ainhoa%Urrutia Losada%NULL%0, Lorea%Arteche Eguizabal%NULL%1, Elisabet%Delgado Sánchez%NULL%3, Elisabet%Delgado Sánchez%NULL%0, Elisabet%Delgado Sánchez%NULL%0, Virginia%Molina Peinado%NULL%1, Sarah%Caro Bragado%NULL%3, Sarah%Caro Bragado%NULL%0, Sarah%Caro Bragado%NULL%0, Gema%Domínguez de Pablos%NULL%1, Carolina%Roldán Fontana%NULL%3, Carolina%Roldán Fontana%NULL%0, Carolina%Roldán Fontana%NULL%0, Carmen%Herrero Rodríguez%NULL%1, Luis%Force Sanmartín%NULL%3, Luis%Force Sanmartín%NULL%0, Luis%Force Sanmartín%NULL%0, Raquel%Aranega%NULL%1, Arantzazu%Mera Fidalgo%NULL%3, Arantzazu%Mera Fidalgo%NULL%0, Arantzazu%Mera Fidalgo%NULL%0, María Roca%Toda Savall%NULL%1, Nicolas%Merchante Gutiérrez%NULL%3, Nicolas%Merchante Gutiérrez%NULL%0, Nicolas%Merchante Gutiérrez%NULL%0, Eva María%León Jiménez%NULL%1, José Luís%Del Pozo%NULL%3, José Luís%Del Pozo%NULL%0, José Luís%Del Pozo%NULL%0, Josefa%Serralta Buades%NULL%3, Josefa%Serralta Buades%NULL%0, Josefa%Serralta Buades%NULL%0, Ginger Giorgiana%Cabrera Tejada%NULL%1, Mario%Fernández-Ruiz%NULL%0, Mario%Fernández-Ruiz%NULL%0, Mario%Fernández-Ruiz%NULL%0, José María%Aguado%NULL%1, Guillermo%Maestro de la Calle%NULL%1, José Miguel%Cisneros%NULL%0, José Miguel%Cisneros%NULL%0, José Miguel%Cisneros%NULL%0, Jerónimo%Pachón%NULL%0, Manuela%Aguilar-Guisado%NULL%1, Teresa%Aldabó%NULL%1, María Dolores%Avilés%NULL%0, Claudio%Bueno%NULL%1, Elisa%Cordero-Matía%NULL%1, Ana%Escoresca%NULL%1, Lydia%Gálvez-Benítez%NULL%1, Carmen%Infante%NULL%1, Guillermo%Martín%NULL%1, Julia%Praena%NULL%1, Cristina%Roca%NULL%1, Celia%Salamanca%NULL%1, Alejandro%Suárez-Benjumea%NULL%1, Pilar%Vizcarra%NULL%3, Pilar%Vizcarra%NULL%0, Pilar%Vizcarra%NULL%0, Carmen%Quereda%NULL%1, Mario José%Rodriguez Dominguez%NULL%1, Francesca%Gioia%NULL%1, Francesca%Norman%NULL%1, Santos%Del Campo%NULL%1, Rafael%Cantón Moreno%NULL%1, Antonio%Oteo Revuelta José%NULL%3, Antonio%Oteo Revuelta José%NULL%0, Antonio%Oteo Revuelta José%NULL%0, Paula%Santibáñez Sáenz%NULL%1, Cristina%Cervera Acedo%NULL%1, Carlos%Ruiz Martínez%NULL%1, José R.%Blanco Ramos%NULL%1, José M.%Azcona Gutiérrez%NULL%1, Concepción%García García%NULL%1, Jorge%Alba Fernández%NULL%1, Valvanera%Ibarra Cucalón%NULL%1, Mercedes%San Franco%NULL%1, Luis%Metola Sacristán%NULL%1, Héctor%Meijide Míguez%NULL%3, Héctor%Meijide Míguez%NULL%0, Héctor%Meijide Míguez%NULL%0, Silvia%Paulos Viñas%NULL%1, Justo%Menéndez%NULL%3, Justo%Menéndez%NULL%0, Justo%Menéndez%NULL%0, Paula%Villares Fernández%NULL%1, Lara%Montes Andújar%NULL%1, Álvaro%Navarro Batet%NULL%3, Álvaro%Navarro Batet%NULL%0, Álvaro%Navarro Batet%NULL%0, Anna%Ferrer Santolaria%NULL%1, María de la Luz%Padilla Salazar%NULL%3, María de la Luz%Padilla Salazar%NULL%0, María de la Luz%Padilla Salazar%NULL%0, Lucy%Abella Vázquez%NULL%1, Marcelino%Hayek Peraza%NULL%1, Antonio%García Pardo%NULL%1, Carolina%Hernández Carballo%NULL%1, Andrés Javier%Ruiz Fernández%NULL%3, Andrés Javier%Ruiz Fernández%NULL%0, Andrés Javier%Ruiz Fernández%NULL%0, Isabel%Barrio López%NULL%1, Alí%Martakoush%NULL%3, Alí%Martakoush%NULL%0, Alí%Martakoush%NULL%0, Agustín%Rojas-Vieyra%NULL%3, Agustín%Rojas-Vieyra%NULL%0, Agustín%Rojas-Vieyra%NULL%0, Sonia%García Calvo%NULL%3, Sonia%García Calvo%NULL%0, Sonia%García Calvo%NULL%0, Mercedes%Villarreal García-Lomas%NULL%1, Marta%Vizcaíno Callejón%NULL%3, Marta%Vizcaíno Callejón%NULL%0, Marta%Vizcaíno Callejón%NULL%0, María Pilar%García García%NULL%1, Ana%Lérida Urteaga%NULL%3, Ana%Lérida Urteaga%NULL%0, Ana%Lérida Urteaga%NULL%0, Natalia%Carrasco Fons%NULL%1, Beatriz%María Sanjuan%NULL%1, Lydia%Martín González%NULL%1, Camilo%Sanz Zamudio%NULL%1, Inmaculada%Jarrín%NULL%0, Inmaculada%Jarrín%NULL%0, Inmaculada%Jarrín%NULL%0, Belén%Alejos%NULL%1, Cristina%Moreno%NULL%1, Marta%Rava%NULL%1, Carlos%Iniesta%NULL%1, Rebeca%Izquierdo%NULL%1, Inés%Suárez-García%NULL%1, Asunción%Díaz%NULL%1, Marta%Ruiz-Alguero%NULL%1, Victoria%Hernando%NULL%1]</t>
+  </si>
+  <si>
+    <t>European Society of Clinical Microbiology and Infectious Diseases. Published by Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0, Denise J%McCulloch%NULL%0, Denise J%McCulloch%NULL%0, Vidya%Atluri%NULL%0, Michela%Blain%NULL%0, Sarah A%McGuffin%NULL%0, Arun K%Nalla%NULL%0, Meei-Li%Huang%NULL%0, Alex L%Greninger%NULL%0, Keith R%Jerome%NULL%0, Seth A%Cohen%NULL%0, Santiago%Neme%NULL%0, Margaret L%Green%NULL%0, Helen Y%Chu%NULL%0, H Nina%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>Oxford University Press</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0, Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0, Wenlin%Cheng%NULL%0, Lei%Yu%NULL%0, Ya-Kun%Liu%NULL%0, Xiaoyong%Hu%NULL%0, Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Salvatore%Caratozzolo%NULL%0, Alberto%Zucchelli%NULL%1, Marinella%Turla%NULL%1, Maria Sofia%Cotelli%NULL%1, Sara%Fascendini%NULL%1, Mara%Zanni%NULL%1, Angelo%Bianchetti%NULL%0, Matteo Peli%Psy%NULL%1, Renzo%Rozzini%NULL%1, Stefano%Boffelli%NULL%1, Melania%Cappuccio%NULL%1, Federica Gottardi%Psy%NULL%1, Chiara Vecchi%Psy%NULL%1, Daniele%Bellandi%NULL%1, Claudia%Caminati%NULL%1, Simona%Gentile%NULL%1, Elena Lucchi%Psy%NULL%1, Ignazio%Di Fazio%NULL%1, Marina Zanetti%Psy%NULL%1, Giuliana%Vezzadini%NULL%1, Chiara Forlani%Psy%NULL%1, Maura Cosseddu%Psy%NULL%1, Rosanna Turrone%Psy%NULL%1, Silvia Pelizzari%Psy%NULL%1, Andrea%Scalvini%NULL%1, Marco%Di Cesare%NULL%1, Marta Grigolo%Psy%NULL%1, Lina%Falanga%NULL%1, Nives%Medici%NULL%1, Nives%Palamini%NULL%1, Elisa Zanacchi%Psy%NULL%1, Eleonora Grossi%Psy%NULL%1, Giuseppe%Bellelli%NULL%1, Alessandra%Marengoni%NULL%1, Marco%Trabucchi%NULL%1, Alessandro%Padovani%alessandro.padovani@unibs.it%1, NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>Springer International Publishing</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0, NULL%NULL%NULL%0, NULL%NULL%NULL%0, Nancy%Chow%NULL%0, Katherine%Fleming-Dutra%NULL%3, Ryan%Gierke%NULL%0, Aron%Hall%NULL%0, Michelle%Hughes%NULL%3, Tamara%Pilishvili%NULL%0, Matthew%Ritchey%NULL%0, Katherine%Roguski%NULL%3, Tami%Skoff%NULL%3, Emily%Ussery%NULL%3]</t>
+  </si>
+  <si>
+    <t>Centers for Disease Control and Prevention</t>
+  </si>
+  <si>
+    <t>[Qingqing%Chen%NULL%0, Zhencang%Zheng%NULL%2, Chao%Zhang%NULL%0, Xijiang%Zhang%NULL%2, Huijuan%Wu%NULL%2, Jingdong%Wang%NULL%2, Shuwei%Wang%NULL%2, Cheng%Zheng%dr.zhengcheng@foxmail.com%2]</t>
+  </si>
+  <si>
+    <t>Springer Berlin Heidelberg</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0, Wei%Liu%NULL%0, Kui%Liu%NULL%0, Yuan-Yuan%Fang%NULL%0, Jin%Shang%NULL%0, Ling%Zhou%NULL%0, Ke%Wang%NULL%0, Fan%Leng%NULL%0, Shuang%Wei%NULL%0, Lei%Chen%NULL%0, Hui-Guo%Liu%NULL%0, Pei-Fang%Wei%NULL%0, Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>Wolters Kluwer Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prioritisation of elderly people in COVID-19 vaccination campaigns aimed at reducing severe outcomes in this group.
+ Using EU/EEA surveillance and vaccination uptake, we estimated the risk ratio of case, hospitalisation and death notifications in people 80 years and older compared with 25–59-year-olds.
+ Highest impact was observed for full vaccination uptake 80% or higher with reductions in notification rates of cases up to 65% (IRR: 0.35; 95% CI: 0.13–0.99), hospitalisations up to 78% (IRR: 0.22; 95% CI: 0.13–0.37) and deaths up to 84% (IRR: 0.16; 95% CI: 0.13–0.20).
+</t>
+  </si>
+  <si>
+    <t>[Nathalie%Nicolay%NULL%0, Francesco%Innocenti%NULL%1, Julien%Beauté%NULL%0, Veronika%Učakar%NULL%1, Marta%Grgič Vitek%NULL%1, Eero%Poukka%NULL%1, Tuula%Hannila-Handelberg%NULL%1, Charmaine%Gauci%NULL%1, Tanya%Melillo%NULL%1, Theano%Georgakopoulou%NULL%1, Jiri%Jarkovsky%NULL%1, Pavel%Slezak%NULL%1, Concepción%Delgado-Sanz%NULL%1, Carmen%Olmedo-Lucerón%NULL%1, Heleene%Suija%NULL%1, Rasa%Liausediene%NULL%1, Piaras%O’Lorcain%NULL%1, Niamh%Murphy%NULL%1, André%Peralta-Santos%NULL%1, Pedro%Casaca%NULL%1, Ioanna%Gregoriou%NULL%1, Nick%Bundle%NULL%0, Gianfranco%Spiteri%NULL%0, Giovanni%Ravasi%NULL%1]</t>
+  </si>
+  <si>
+    <t>European Centre for Disease Prevention and Control (ECDC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background: A novel pneumonia (COVID-19) spread rapidly throughout worldwide, in December, 2019. Most of the deaths have occurred in severe and critical cases, but information on prognostic risk factors for severely ill patients is incomplete.
+ Further research is urgently needed to guide clinicians, and we therefore prospectively evaluate the clinical outcomes of 114 severely ill patients with COVID-19 for short-term at the Union Hospital in Wuhan, China.
+</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Feng%NULL%0, Peiyun%Li%NULL%2, Liang%Ma%NULL%2, Hang%Liang%NULL%2, Jie%Lei%NULL%3, Wenqiang%Li%NULL%2, Kun%Wang%NULL%0, Yu%Song%NULL%2, Shuai%Li%NULL%2, Wei%Yang%NULL%0, Cao%Yang%NULL%2]</t>
+  </si>
+  <si>
+    <t>Frontiers Media S.A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rationale: The coronavirus disease (COVID-19) pandemic is now a global health concern.
+</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0, Yun%Ling%NULL%0, Yun%Ling%NULL%0, Tao%Bai%NULL%0, Tao%Bai%NULL%0, Yusang%Xie%NULL%0, Jie%Huang%NULL%0, Jie%Huang%NULL%0, Jian%Li%NULL%0, Weining%Xiong%NULL%0, Dexiang%Yang%NULL%0, Rong%Chen%NULL%0, Fangying%Lu%NULL%0, Yunfei%Lu%NULL%0, Xuhui%Liu%NULL%0, Yuqing%Chen%NULL%0, Yuqing%Chen%NULL%0, Xin%Li%NULL%0, Yong%Li%NULL%0, Hanssa Dwarka%Summah%NULL%0, Huihuang%Lin%NULL%0, Jiayang%Yan%NULL%0, Min%Zhou%NULL%0, Hongzhou%Lu%NULL%0, Hongzhou%Lu%NULL%0, Jieming%Qu%NULL%0, Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>American Thoracic Society</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a population-based prospective cohort study on archive data describing the age- and sex-specific prevalence of COVID-19 and its prognostic factors.
+ All 2653 symptomatic patients tested positive for SARS-CoV-2 from February 27 to April 2, 2020 in the Reggio Emilia province, Italy, were included.
+ COVID-19 cumulative incidence, hospitalization and death rates, and adjusted hazard ratios (HR) with 95% confidence interval (95% CI) were calculated according to sociodemographic and clinical characteristics.
+ Females had higher prevalence of infection than males below age 50 (2.61 vs.
+ 1.84 ‰), but lower in older ages (16.49 vs.
+ 20.86 ‰ over age 80).
+ Case fatality rate reached 20.7% in cases with more than 4 weeks follow up.
+ After adjusting for age and comorbidities, men had a higher risk of hospitalization (HR 1.4 95% CI 1.2 to 1.6) and of death (HR 1.6, 95% CI 1.2 to 2.1).
+ Patients over age 80 compared to age &amp;lt; 50 had HR 7.1 (95% CI 5.4 to 9.3) and HR 27.8 (95% CI 12.5 to 61.7) for hospitalization and death, respectively.
+ Immigrants had a higher risk of hospitalization (HR 1.3, 95% CI 0.99 to 1.81) than Italians and a similar risk of death.
+ Risk of hospitalization and of death were higher in patients with heart failure, arrhythmia, dementia, coronary heart disease, diabetes, and hypertension, while COPD increased the risk of hospitalization (HR 1.9, 95% CI 1.4 to 2.5) but not of death (HR 1.1, 95% CI 0.7 to 1.7).
+ Previous use of ACE inhibitors had no effect on risk of death (HR 0.97, 95% CI 0.69 to 1.34).
+ Identified susceptible populations and fragile patients should be considered when setting priorities in public health planning and clinical decision making.
+</t>
+  </si>
+  <si>
+    <t>[Paolo%Giorgi Rossi%NULL%0, Massimiliano%Marino%NULL%0, Debora%Formisano%NULL%0, Francesco%Venturelli%NULL%0, Massimo%Vicentini%NULL%0, Massimo%Vicentini%NULL%0, Roberto%Grilli%NULL%0, NULL%NULL%NULL%0, Gianluigi%Forloni%NULL%0, Gianluigi%Forloni%NULL%0, Gianluigi%Forloni%NULL%0, Gianluigi%Forloni%NULL%0, Gianluigi%Forloni%NULL%0, Gianluigi%Forloni%NULL%0, Gianluigi%Forloni%NULL%0, Gianluigi%Forloni%NULL%0]</t>
+  </si>
+  <si>
+    <t>Public Library of Science</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0, Justin J.%Choi%NULL%0, Laura C.%Pinheiro%NULL%0, Edward J.%Schenck%NULL%0, Ruijun%Chen%NULL%0, Assem%Jabri%NULL%0, Michael J.%Satlin%NULL%0, Thomas R.%Campion%NULL%0, Musarrat%Nahid%NULL%0, Joanna B.%Ringel%NULL%0, Katherine L.%Hoffman%NULL%0, Mark N.%Alshak%NULL%0, Han A.%Li%NULL%0, Graham T.%Wehmeyer%NULL%0, Graham T.%Wehmeyer%NULL%0, Mangala%Rajan%NULL%0, Evgeniya%Reshetnyak%NULL%0, Nathaniel%Hupert%NULL%0, Evelyn M.%Horn%NULL%0, Fernando J.%Martinez%NULL%0, Roy M.%Gulick%NULL%0, Monika M.%Safford%NULL%0, Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>Massachusetts Medical Society</t>
+  </si>
+  <si>
+    <t>[Jonathan%Grein%NULL%0, Norio%Ohmagari%NULL%0, Daniel%Shin%NULL%1, George%Diaz%NULL%0, Erika%Asperges%NULL%1, Antonella%Castagna%NULL%0, Torsten%Feldt%NULL%1, Gary%Green%NULL%1, Margaret L.%Green%NULL%1, François-Xavier%Lescure%NULL%0, Emanuele%Nicastri%NULL%0, Rentaro%Oda%NULL%2, Rentaro%Oda%NULL%0, Kikuo%Yo%NULL%2, Kikuo%Yo%NULL%0, Eugenia%Quiros-Roldan%NULL%1, Alex%Studemeister%NULL%1, John%Redinski%NULL%1, Seema%Ahmed%NULL%1, Jorge%Bernett%NULL%1, Daniel%Chelliah%NULL%1, Danny%Chen%NULL%1, Shingo%Chihara%NULL%1, Stuart H.%Cohen%NULL%1, Jennifer%Cunningham%NULL%1, Antonella%D’Arminio Monforte%NULL%1, Saad%Ismail%NULL%1, Hideaki%Kato%NULL%0, Giuseppe%Lapadula%NULL%1, Erwan%L’Her%NULL%1, Toshitaka%Maeno%NULL%1, Sumit%Majumder%NULL%1, Marco%Massari%NULL%0, Marta%Mora-Rillo%NULL%1, Yoshikazu%Mutoh%NULL%1, Duc%Nguyen%NULL%1, Ewa%Verweij%NULL%1, Alexander%Zoufaly%NULL%1, Anu O.%Osinusi%NULL%1, Adam%DeZure%NULL%1, Yang%Zhao%NULL%1, Lijie%Zhong%NULL%1, Anand%Chokkalingam%NULL%1, Emon%Elboudwarej%NULL%1, Laura%Telep%NULL%1, Leighann%Timbs%NULL%1, Ilana%Henne%NULL%1, Scott%Sellers%NULL%1, Huyen%Cao%NULL%1, Susanna K.%Tan%NULL%1, Lucinda%Winterbourne%NULL%1, Polly%Desai%NULL%1, Robertino%Mera%NULL%1, Anuj%Gaggar%NULL%1, Robert P.%Myers%NULL%1, Diana M.%Brainard%NULL%1, Richard%Childs%NULL%1, Timothy%Flanigan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0, Zheng-yi%Ni%NULL%0, Zheng-yi%Ni%NULL%0, Yu%Hu%NULL%0, Wen-hua%Liang%NULL%0, Chun-quan%Ou%NULL%0, Jian-xing%He%NULL%0, Lei%Liu%NULL%0, Hong%Shan%NULL%0, Chun-liang%Lei%NULL%0, David S.C.%Hui%NULL%0, Bin%Du%NULL%0, Lan-juan%Li%NULL%0, Guang%Zeng%NULL%0, Kwok-Yung%Yuen%NULL%0, Ru-chong%Chen%NULL%0, Chun-li%Tang%NULL%0, Tao%Wang%NULL%0, Ping-yan%Chen%NULL%0, Jie%Xiang%NULL%0, Shi-yue%Li%NULL%0, Jin-lin%Wang%NULL%0, Zi-jing%Liang%NULL%0, Yi-xiang%Peng%NULL%0, Li%Wei%NULL%0, Yong%Liu%NULL%0, Ya-hua%Hu%NULL%0, Peng%Peng%NULL%0, Jian-ming%Wang%NULL%0, Ji-yang%Liu%NULL%0, Zhong%Chen%NULL%0, Gang%Li%NULL%0, Zhi-jian%Zheng%NULL%0, Shao-qin%Qiu%NULL%0, Jie%Luo%NULL%0, Chang-jiang%Ye%NULL%0, Shao-yong%Zhu%NULL%0, Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rahmet%GÜNER%NULL%0, İmran%HASANOĞLU%NULL%2, İmran%HASANOĞLU%NULL%0, Bircan%KAYAASLAN%NULL%2, Bircan%KAYAASLAN%NULL%0, Adalet%AYPAK%NULL%2, Adalet%AYPAK%NULL%0, Ayşe%KAYA KALEM%NULL%2, Ayşe%KAYA KALEM%NULL%0, Fatma%ESER%NULL%2, Fatma%ESER%NULL%0, Burcu%ÖZDEMİR%NULL%2, Burcu%ÖZDEMİR%NULL%0, Elif Mükime%SARICAOĞLU%NULL%2, Elif Mükime%SARICAOĞLU%NULL%0, Müge%AYHAN%NULL%2, Müge%AYHAN%NULL%0, Yeşim%AYBAR BİLİR%NULL%2, Yeşim%AYBAR BİLİR%NULL%0, Işıl%ÖZKOÇAK TURAN%NULL%2, Işıl%ÖZKOÇAK TURAN%NULL%0, Deniz%ERDEM%NULL%2, Deniz%ERDEM%NULL%0, Nevzat Mehmet%MUTLU%NULL%1, Turan%BUZGAN%NULL%2, Turan%BUZGAN%NULL%0, Bedia%DİNÇ%NULL%2, Bedia%DİNÇ%NULL%0, Esragül%AKINCI%NULL%2, Esragül%AKINCI%NULL%0]</t>
+  </si>
+  <si>
+    <t>The Scientific and Technological Research Council of Turkey</t>
+  </si>
+  <si>
+    <t>[Stephanie L.%Harrison%NULL%0, Elnara%Fazio-Eynullayeva%NULL%2, Elnara%Fazio-Eynullayeva%NULL%0, Deirdre A.%Lane%NULL%2, Deirdre A.%Lane%NULL%0, Paula%Underhill%NULL%2, Paula%Underhill%NULL%0, Gregory Y. H.%Lip%NULL%1, Mirjam E. E.%Kretzschmar%NULL%3, Mirjam E. E.%Kretzschmar%NULL%0, Mirjam E. E.%Kretzschmar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuanzhou%He%NULL%0, Min%Xie%NULL%0, Jianping%Zhao%NULL%0, Xiansheng%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>International Scientific Literature, Inc.</t>
+  </si>
+  <si>
+    <t>[Ling%Hu%NULL%0, Shaoqiu%Chen%NULL%0, Yuanyuan%Fu%NULL%0, Zitong%Gao%NULL%0, Hui%Long%NULL%0, Jian-ming%Wang%NULL%0, Hong-wei%Ren%NULL%0, Yi%Zuo%NULL%0, Huan%Li%NULL%0, Jie%Wang%NULL%0, Qing-bang%Xu%NULL%0, Wen-xiong%Yu%NULL%0, Jia%Liu%NULL%0, Chen%Shao%NULL%0, Jun-jie%Hao%NULL%0, Chuan-zhen%Wang%NULL%0, Yao%Ma%NULL%0, Zhanwei%Wang%NULL%0, Richard%Yanagihara%NULL%0, Youping%Deng%dengy@hawaii.edu%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0, Yeming%Wang%NULL%0, Xingwang%Li%NULL%0, Lili%Ren%NULL%0, Jianping%Zhao%NULL%0, Yi%Hu%NULL%0, Li%Zhang%NULL%0, Guohui%Fan%NULL%0, Jiuyang%Xu%NULL%0, Xiaoying%Gu%NULL%0, Zhenshun%Cheng%NULL%0, Ting%Yu%NULL%0, Jiaan%Xia%NULL%0, Yuan%Wei%NULL%0, Wenjuan%Wu%NULL%0, Xuelei%Xie%NULL%0, Wen%Yin%NULL%0, Hui%Li%NULL%0, Min%Liu%NULL%0, Yan%Xiao%NULL%0, Hong%Gao%NULL%0, Li%Guo%NULL%0, Jungang%Xie%NULL%0, Guangfa%Wang%NULL%0, Rongmeng%Jiang%NULL%0, Zhancheng%Gao%NULL%0, Qi%Jin%NULL%0, Jianwei%Wang%wangjw28@163.com%0, Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We analysed the first 84 coronavirus disease (COVID-19) patients hospitalised in an infectious and tropical disease unit in Florence, Italy, over 30 days after the start of the COVID-19 outbreak in Italy.
+ A 12% reduction in the rate of intensive care unit transfer was observed after the implementation of intensity care measures in the regular ward such as increasing the nurse/patient ratio, presence of critical care physicians and using high flow nasal cannulae oxygenation.
+</t>
+  </si>
+  <si>
+    <t>[Filippo%Lagi%NULL%0, Matteo%Piccica%NULL%1, Lucia%Graziani%NULL%1, Iacopo%Vellere%NULL%1, Annarita%Botta%NULL%3, Marta%Tilli%NULL%3, Letizia%Ottino%NULL%1, Beatrice%Borchi%NULL%2, Marco%Pozzi%NULL%1, Filippo%Bartalesi%NULL%1, Jessica%Mencarini%NULL%1, Michele%Spinicci%NULL%1, Lorenzo%Zammarchi%NULL%1, Filippo%Pieralli%NULL%1, Giovanni%Zagli%NULL%1, Carlo%Nozzoli%NULL%1, Stefano%Romagnoli%NULL%1, Alessandro%Bartoloni%NULL%2, NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0, Zhao-Wu%Tao%NULL%0, Lei%Wang%NULL%0, Ming-Li%Yuan%NULL%0, Kui%Liu%NULL%0, Ling%Zhou%NULL%0, Shuang%Wei%NULL%0, Yan%Deng%NULL%0, Jing%Liu%NULL%0, Hui-Guo%Liu%NULL%0, Ming%Yang%NULL%0, Yi%Hu%NULL%0, Pei-Fang%Wei%NULL%0, Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0, Shuyun%Xu%NULL%0, Muqing%Yu%NULL%0, Ke%Wang%NULL%0, Yu%Tao%NULL%0, Ying%Zhou%NULL%0, Jing%Shi%NULL%0, Min%Zhou%NULL%0, Bo%Wu%NULL%0, Zhenyu%Yang%NULL%0, Cong%Zhang%NULL%0, Junqing%Yue%NULL%0, Zhiguo%Zhang%NULL%0, Harald%Renz%NULL%0, Xiansheng%Liu%NULL%0, Jungang%Xie%NULL%0, Min%Xie%NULL%0, Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>American Academy of Allergy, Asthma &amp;amp; Immunology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The outbreak of corona virus disease 2019 (Covid-19) imposes a major challenge in managing patients undergoing surgical operation.
+ In this study, we analyzed clinical and transmission features of 25 cases of Covid-19 from a single thoracic department, including 13 patients and 12 health care staff.
+ There were 13 males and 12 females.
+ The median age of the patients was 61 (range: 51 to 69) years.
+ The median age of the health care staff was 35 (range: 22 to 51) years.
+ By the end of follow-up date (Mar.
+ 3, 2020), there were 16 non-severe cases (64%) and 9 severe cases (36%), 5 cases were dead (20%).
+ Nineteen (76%) of the infected cases were confirmed by SARS-CoV-2 nucleic acid test, the rest were clinically diagnosed as suspected Covid-19 cases, and 19 (76%) of the infected cases had positive exposure history.
+ We found that COPD was significantly associated with severity and death (P=0.040, and P=0.038, respectively), and chest operation was significantly associated with death for Covid-19 patients (P=0.039).
+ A potential “super spreader” may be the source of the transmission before the implementation of quarantine and comprehensive protection.
+ It was concluded that Covid-19 is associated with poor prognosis for patients undergoing thoracic operation, especially for those with COPD.
+ Implementation of comprehensive protective measures is important to control nosocomial infection.
+</t>
+  </si>
+  <si>
+    <t>[Yang-kai%Li%doclyk@163.com%0, Shu%Peng%NULL%1, Le-qun%Li%NULL%1, Qi%Wang%NULL%0, Wei%Ping%NULL%1, Ni%Zhang%NULL%1, Xiang-ning%Fu%fuxn2006@aliyun.com%1]</t>
+  </si>
+  <si>
+    <t>Huazhong University of Science and Technology</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0, Yuanyuan%Xing%NULL%0, Yu%Xiao%NULL%0, Liping%Deng%NULL%0, Qiu%Zhao%NULL%0, Hongling%Wang%NULL%0, Yong%Xiong%NULL%0, Zhenshun%Cheng%NULL%0, Shicheng%Gao%NULL%0, Ke%Liang%NULL%0, Mingqi%Luo%NULL%0, Tielong%Chen%NULL%0, Shihui%Song%NULL%0, Zhiyong%Ma%NULL%0, Xiaoping%Chen%NULL%0, Ruiying%Zheng%NULL%0, Qian%Cao%NULL%0, Fan%Wang%fanndywang@foxmail.com%0, Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Gaspar Manuel%Parra-Bracamonte%NULL%0, Nicolas%Lopez-Villalobos%NULL%1, Francisco E.%Parra-Bracamonte%NULL%1]</t>
+  </si>
+  <si>
+    <t>Elsevier Inc.</t>
+  </si>
+  <si>
+    <t>[Ishan%Paranjpe%NULL%0, Adam J%Russak%NULL%0, Adam J%Russak%NULL%0, Jessica K%De Freitas%NULL%0, Anuradha%Lala%NULL%0, Riccardo%Miotto%NULL%0, Akhil%Vaid%NULL%0, Kipp W%Johnson%NULL%0, Matteo%Danieletto%NULL%0, Eddye%Golden%NULL%0, Dara%Meyer%NULL%0, Manbir%Singh%NULL%0, Sulaiman%Somani%NULL%0, Arjun%Kapoor%NULL%2, Ross%O'Hagan%NULL%2, Sayan%Manna%NULL%2, Udit%Nangia%NULL%2, Suraj K%Jaladanki%NULL%2, Paul%O’Reilly%NULL%0, Paul%O’Reilly%NULL%0, Laura M%Huckins%NULL%2, Patricia%Glowe%NULL%2, Arash%Kia%NULL%0, Prem%Timsina%NULL%0, Robert M%Freeman%NULL%2, Matthew A%Levin%NULL%0, Jeffrey%Jhang%NULL%0, Adolfo%Firpo%NULL%2, Patricia%Kovatch%NULL%0, Joseph%Finkelstein%NULL%0, Judith A%Aberg%NULL%0, Emilia%Bagiella%NULL%0, Carol R%Horowitz%NULL%0, Barbara%Murphy%NULL%0, Zahi A%Fayad%NULL%0, Jagat%Narula%NULL%0, Eric J%Nestler%NULL%0, V%Fuster%NULL%2, Carlos%Cordon-Cardo%NULL%0, Dennis%Charney%NULL%0, David L%Reich%NULL%0, Allan%Just%NULL%0, Erwin P%Bottinger%NULL%0, Alexander W%Charney%NULL%0, Benjamin S%Glicksberg%NULL%0, Girish N%Nadkarni%NULL%0, NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>BMJ Publishing Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is limited information describing the characteristics and clinical outcomes of patients infected with coronavirus disease 2019 (COVID‐19) especially those in underserved urban area with minority population in the United States.
+ This is a retrospective single‐center study for patients who were admitted with COVID‐19 infection.
+ Data collection was from 1 March through 24 April 2020. Demographic, clinical, laboratory, and treatment data were presented using descriptive statistics and frequencies.
+ The χ
+2 test and multivariate logistic regression were used to determine association of risk factors and clinical outcomes.
+ A total of 242 inpatients were included with a mean age of 66 ± 14.75 (±standard deviation).
+ A total of 50% were female and 70% were African American.
+ Comorbidities included hypertension (74%), diabetes mellitus (49%), and 19% had either COPD or asthma.
+ Older age was associated with higher risk of inpatient death odds ratio (OR): 1.056 (95% confidence interval [CI]: 1.023‐1.090; P = .
+001).
+ Inpatient mortality occurred in 70% who needed mechanical ventilation (OR: 29.51; 95% CI: 13.28‐65.60; P &amp;lt; .
+0001), 58% who required continuous renal replacement therapy/hemodialysis (CRRT/HD) (OR: 6.63; 95% CI: 2.74‐16.05; P &amp;lt; .
+0001), and 69% who needed vasopressors (OR: 30.64; 95% CI: 13.56‐69.20; P &amp;lt; .
+0001).
+ Amongst biomarkers of disease severity, only baseline CRP levels (145 ± 116 mg/L) were associated with mortality OR: 1.008 (95% CI: 1.003‐1.012; P = .
+002).
+ Majority of hospitalized patients had hypertension and diabetes.
+ Older age was an independent risk factor for inpatient mortality.
+ Requirement of mechanical ventilation, vasopressor use, and CRRT/HD was associated significantly with inpatient mortality.
+ Higher baseline CRP was significantly associated with inpatient death.
+</t>
+  </si>
+  <si>
+    <t>[Grace%Salacup%salacupg@einstein.edu%0, Kevin Bryan%Lo%NULL%0, Kevin Bryan%Lo%NULL%0, Fahad%Gul%NULL%0, Eric%Peterson%NULL%0, Robert%De Joy%NULL%0, Ruchika%Bhargav%NULL%0, Jerald%Pelayo%NULL%0, Jeri%Albano%NULL%0, Zurab%Azmaiparashvili%NULL%0, Sadia%Benzaquen%NULL%0, Gabriel%Patarroyo‐Aponte%NULL%0, Janani%Rangaswami%NULL%0]</t>
+  </si>
+  <si>
+    <t>John Wiley and Sons Inc.</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0, Mu%Qin%qinmuae@163.com%0, Yuli%Cai%NULL%0, Tao%Liu%NULL%0, Bo%Shen%NULL%0, Fan%Yang%NULL%0, Sheng%Cao%NULL%0, Xu%Liu%NULL%0, Xu%Liu%NULL%0, Yaozu%Xiang%NULL%0, Qinyan%Zhao%NULL%0, He%Huang%huanghe1977@whu.edu.cn%0, Bo%Yang%yybb112@whu.edu.cn%0, Congxin%Huang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jennifer%Tomlins%NULL%0, Fergus%Hamilton%NULL%1, Samuel%Gunning%NULL%1, Caitlin%Sheehy%NULL%1, Ed%Moran%NULL%1, Alastair%MacGowan%NULL%1]</t>
+  </si>
+  <si>
+    <t>Published by Elsevier Ltd on behalf of The British Infection Association.</t>
+  </si>
+  <si>
+    <t>The outbreak of the novel coronavirus in China (SARS‐CoV‐2) that began in December 2019 presents a significant and urgent threat to global health.
+ This study was conducted to provide the international community with a deeper understanding of this new infectious disease.
+ Epidemiological, clinical features, laboratory findings, radiological characteristics, treatment, and clinical outcomes of 135 patients in northeast Chongqing were collected and analyzed in this study.
+ A total of 135 hospitalized patients with COVID‐19 were enrolled.
+ The median age was 47 years (interquartile range, 36‐55), and there was no significant gender difference (53.3% men).
+ The majority of patients had contact with people from the Wuhan area.
+ Forty‐three (31.9%) patients had underlying disease, primarily hypertension (13 [9.6%]), diabetes (12 [8.9%]), cardiovascular disease (7 [5.2%]), and malignancy (4 [3.0%]).
+ Common symptoms included fever (120 [88.9%]), cough (102 [76.5%]), and fatigue (44 [32.5%]).
+ Chest computed tomography scans showed bilateral patchy shadows or ground glass opacity in the lungs of all the patients.
+ All patients received antiviral therapy (135 [100%]) (Kaletra and interferon were both used), antibacterial therapy (59 [43.7%]), and corticosteroids (36 [26.7%]).
+ In addition, many patients received traditional Chinese medicine (TCM) (124 [91.8%]).
+ It is suggested that patients should receive Kaletra early and should be treated by a combination of Western and Chinese medicines.
+ Compared to the mild cases, the severe ones had lower lymphocyte counts and higher plasma levels of Pt, APTT, d‐dimer, lactate dehydrogenase, PCT, ALB, C‐reactive protein, and aspartate aminotransferase.
+ This study demonstrates the clinic features and therapies of 135 COVID‐19 patients.
+ Kaletra and TCM played an important role in the treatment of the viral pneumonia.
+ Further studies are required to explore the role of Kaletra and TCM in the treatment of COVID‐19.</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0, Yi%Xiang%NULL%0, Wei%Fang%NULL%0, Yu%Zheng%yuzheng1@cdutcm.edu.cn%0, Boqun%Li%279685211@qq.com%0, Boqun%Li%279685211@qq.com%0, Yanjun%Hu%huyanjun@163.com%0, Chunhui%Lang%NULL%0, Daoqiu%Huang%NULL%0, Qiuyan%Sun%NULL%0, Yan%Xiong%NULL%0, Xia%Huang%NULL%0, Jinglong%Lv%NULL%0, Yaling%Luo%NULL%0, Li%Shen%NULL%0, Haoran%Yang%NULL%0, Gu%Huang%NULL%0, Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              •
+              COVID-19 in the elderly patients was severe and highly fatal.
+</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0, Wenbo%He%NULL%5, Xiaomei%Yu%NULL%5, Dalong%Hu%NULL%5, Mingwei%Bao%NULL%5, Huafen%Liu%NULL%5, Jiali%Zhou%NULL%5, Hong%Jiang%NULL%5]</t>
+  </si>
+  <si>
+    <t>The British Infection Association. Published by Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0, Bohan%Yang%NULL%0, Qianwen%Li%NULL%0, Lu%Wen%NULL%0, Ruiguang%Zhang%zrg27@163.com%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This retrospective study was designed to explore whether neutrophil to lymphocyte ratio (NLR) is a prognostic factor in patients with coronavirus disease 2019 (COVID‐19).
+ A cohort of patients with COVID‐19 admitted to the Tongren Hospital of Wuhan University from 11 January 2020 to 3 March 2020 was retrospectively analyzed.
+ Patients with hematologic malignancy were excluded.
+ The NLR was calculated by dividing the neutrophil count by the lymphocyte count.
+ NLR values were measured at the time of admission.
+ The primary outcome was all‐cause in‐hospital mortality.
+ A multivariate logistic analysis was performed.
+ A total of 1004 patients with COVID‐19 were included in this study.
+ The mortality rate was 4.0% (40 cases).
+ The median age of nonsurvivors (68 years) was significantly older than survivors (62 years).
+ Male sex was more predominant in nonsurvival group (27; 67.5%) than in the survival group (466; 48.3%).
+ NLR value of nonsurvival group (median: 49.06; interquartile range [IQR]: 25.71‐69.70) was higher than that of survival group (median: 4.11; IQR: 2.44‐8.12; P &amp;lt; .
+001).
+ In multivariate logistic regression analysis, after adjusting for confounding factors, NLR  more than 11.75 was significantly correlated with all‐cause in‐hospital mortality (odds ratio = 44.351; 95% confidence interval = 4.627‐425.088).
+ These results suggest that the NLR at hospital admission is associated with in‐hospital mortality among patients with COVID‐19. Therefore, the NLR appears to be a significant prognostic biomarker of outcomes in critically ill patients with COVID‐19. However, further investigation is needed to validate this relationship with data collected prospectively.
+</t>
+  </si>
+  <si>
+    <t>[Xisheng%Yan%NULL%0, Fen%Li%NULL%0, Xiao%Wang%NULL%0, Jie%Yan%NULL%0, Fen%Zhu%NULL%0, Shifan%Tang%NULL%0, Yingzhong%Deng%NULL%0, Hua%Wang%NULL%0, Rui%Chen%NULL%0, Zhili%Yu%NULL%0, Yaping%Li%NULL%0, Jingzhou%Shang%NULL%0, Lingjun%Zeng%NULL%0, Jie%Zhao%NULL%0, Chaokun%Guan%NULL%0, Qiaomei%Liu%NULL%0, Haifeng%Chen%NULL%0, Wei%Gong%NULL%0, Xin%Huang%NULL%0, Yu‐Jiao%Zhang%NULL%0, Jianguang%Liu%NULL%0, Xiaoyan%Dong%NULL%0, Wen%Zheng%zhengwen12@mails.jlu.edu.cn%0, Shaoping%Nie%spnie@126.com%0, Dongsheng%Li%dongshengli196809@163.com%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This paper estimates the magnitude of an informational friction limiting credit reallocation to firms during the 2007‐2009 financial crisis.
+ Because lenders rely on private information when deciding which relationship to end, borrowers looking for a new lender are adversely selected.
+ I show how to identify private information separately from information common to all lenders but unobservable to the econometrician by using bank shocks within a discrete choice model of relationships.
+ Quantitatively, these informational frictions seem too small to explain the credit crunch in the U.
+S.
+ syndicated corporate loan market.
+</t>
+  </si>
+  <si>
+    <t>[Ping%Yang%NULL%0, Pengfei%Wang%NULL%2, Pengfei%Wang%NULL%0, Yuyan%Song%NULL%1, An%Zhang%zhangan@hospital.cqmu.edu.cn%1, Guodan%Yuan%71502294@qq.com%1, Yong%Cui%754605155@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0, Yuan%Yu%NULL%0, Jiqian%Xu%NULL%0, Huaqing%Shu%NULL%0, Jia'an%Xia%NULL%0, Hong%Liu%NULL%0, Yongran%Wu%NULL%0, Lu%Zhang%NULL%0, Zhui%Yu%NULL%0, Minghao%Fang%NULL%0, Ting%Yu%NULL%0, Yaxin%Wang%NULL%0, Shangwen%Pan%NULL%0, Xiaojing%Zou%NULL%0, Shiying%Yuan%NULL%0, You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%0, Chang%Hu%NULL%4, Linjie%Luo%NULL%3, Fang%Fang%NULL%5, Yongfeng%Chen%NULL%3, Jianguo%Li%NULL%0, Zhiyong%Peng%NULL%0, Huaqin%Pan%phq2012@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>Elsevier B.V.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              •
+              Male gender and comorbidity were the independent risk factors for death in COVID-19 patients.
+</t>
+  </si>
+  <si>
+    <t>[Jun%Zhang%NULL%0, Miao%Yu%NULL%0, Song%Tong%NULL%1, Lu-Yu%Liu%NULL%1, Liang-V.%Tang%lancet.tang@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Rui%Zhang%NULL%0, Huangqing%Ouyang%NULL%2, Lingli%Fu%NULL%2, Shijie%Wang%NULL%2, Jianglong%Han%NULL%2, Kejie%Huang%NULL%2, Mingfang%Jia%NULL%2, Qibin%Song%NULL%2, Zhenming%Fu%davidfuzming@whu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This study aimed to develop risk scores based on clinical characteristics at presentation to predict intensive care unit (ICU) admission and mortality in COVID-19 patients.
+ 641 hospitalized patients with laboratory-confirmed COVID-19 were selected from 4997 persons under investigation.
+ We performed a retrospective review of medical records of demographics, comorbidities and laboratory tests at the initial presentation.
+ Primary outcomes were ICU admission and death.
+ Logistic regression was used to identify independent clinical variables predicting the two outcomes.
+ The model was validated by splitting the data into 70% for training and 30% for testing.
+ Performance accuracy was evaluated using area under the curve (AUC) of the receiver operating characteristic analysis (ROC).
+ Five significant variables predicting ICU admission were lactate dehydrogenase, procalcitonin, pulse oxygen saturation, smoking history, and lymphocyte count.
+ Seven significant variables predicting mortality were heart failure, procalcitonin, lactate dehydrogenase, chronic obstructive pulmonary disease, pulse oxygen saturation, heart rate, and age.
+ The mortality group uniquely contained cardiopulmonary variables.
+ The risk score model yielded good accuracy with an AUC of 0.74 ([95% CI, 0.63–0.85], p = 0.001) for predicting ICU admission and 0.83 ([95% CI, 0.73–0.92], p&amp;lt;0.001) for predicting mortality for the testing dataset.
+ This study identified key independent clinical variables that predicted ICU admission and mortality associated with COVID-19. This risk score system may prove useful for frontline physicians in clinical decision-making under time-sensitive and resource-constrained environment.
+</t>
+  </si>
+  <si>
+    <t>[Zirun%Zhao%NULL%0, Anne%Chen%NULL%0, Wei%Hou%NULL%0, James M.%Graham%NULL%0, Haifang%Li%NULL%0, Paul S.%Richman%NULL%0, Henry C.%Thode%NULL%0, Adam J.%Singer%NULL%0, Tim Q.%Duong%NULL%0, Muhammad%Adrish%NULL%0, Muhammad%Adrish%NULL%0, Muhammad%Adrish%NULL%0, Muhammad%Adrish%NULL%0, Muhammad%Adrish%NULL%0, Muhammad%Adrish%NULL%0, Muhammad%Adrish%NULL%0, Muhammad%Adrish%NULL%0, Muhammad%Adrish%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0, Ting%Yu%NULL%0, Ronghui%Du%NULL%0, Guohui%Fan%NULL%0, Ying%Liu%NULL%0, Zhibo%Liu%NULL%0, Jie%Xiang%NULL%0, Yeming%Wang%NULL%0, Bin%Song%NULL%0, Xiaoying%Gu%NULL%0, Lulu%Guan%NULL%0, Yuan%Wei%NULL%0, Hui%Li%NULL%0, Xudong%Wu%NULL%0, Jiuyang%Xu%NULL%0, Shengjin%Tu%NULL%0, Yi%Zhang%NULL%0, Hua%Chen%NULL%0, Bin%Cao%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -2480,7 +3082,7 @@
         <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>400</v>
+        <v>535</v>
       </c>
       <c r="F2" t="s">
         <v>67</v>
@@ -2492,10 +3094,10 @@
         <v>69</v>
       </c>
       <c r="I2" t="s">
-        <v>234</v>
+        <v>94</v>
       </c>
       <c r="J2" t="s">
-        <v>94</v>
+        <v>536</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -2512,7 +3114,7 @@
         <v>71</v>
       </c>
       <c r="E3" t="s">
-        <v>401</v>
+        <v>537</v>
       </c>
       <c r="F3" t="s">
         <v>72</v>
@@ -2524,10 +3126,10 @@
         <v>73</v>
       </c>
       <c r="I3" t="s">
-        <v>235</v>
+        <v>94</v>
       </c>
       <c r="J3" t="s">
-        <v>94</v>
+        <v>538</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2544,7 +3146,7 @@
         <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>402</v>
+        <v>539</v>
       </c>
       <c r="F4" t="s">
         <v>76</v>
@@ -2556,10 +3158,10 @@
         <v>77</v>
       </c>
       <c r="I4" t="s">
-        <v>235</v>
+        <v>94</v>
       </c>
       <c r="J4" t="s">
-        <v>94</v>
+        <v>540</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2576,7 +3178,7 @@
         <v>79</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>541</v>
       </c>
       <c r="F5" t="s">
         <v>80</v>
@@ -2588,10 +3190,10 @@
         <v>81</v>
       </c>
       <c r="I5" t="s">
-        <v>234</v>
+        <v>94</v>
       </c>
       <c r="J5" t="s">
-        <v>94</v>
+        <v>542</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2608,7 +3210,7 @@
         <v>83</v>
       </c>
       <c r="E6" t="s">
-        <v>403</v>
+        <v>543</v>
       </c>
       <c r="F6" t="s">
         <v>84</v>
@@ -2620,10 +3222,10 @@
         <v>85</v>
       </c>
       <c r="I6" t="s">
-        <v>235</v>
+        <v>94</v>
       </c>
       <c r="J6" t="s">
-        <v>94</v>
+        <v>544</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2634,28 +3236,28 @@
         <v>44013</v>
       </c>
       <c r="C7" t="s">
-        <v>239</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>240</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>404</v>
+        <v>61</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="G7" t="s">
-        <v>241</v>
+        <v>63</v>
       </c>
       <c r="H7" t="s">
-        <v>300</v>
+        <v>77</v>
       </c>
       <c r="I7" t="s">
         <v>94</v>
       </c>
       <c r="J7" t="s">
-        <v>301</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2672,7 +3274,7 @@
         <v>87</v>
       </c>
       <c r="E8" t="s">
-        <v>405</v>
+        <v>545</v>
       </c>
       <c r="F8" t="s">
         <v>88</v>
@@ -2684,10 +3286,10 @@
         <v>77</v>
       </c>
       <c r="I8" t="s">
-        <v>235</v>
+        <v>94</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>544</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2704,7 +3306,7 @@
         <v>90</v>
       </c>
       <c r="E9" t="s">
-        <v>406</v>
+        <v>546</v>
       </c>
       <c r="F9" t="s">
         <v>91</v>
@@ -2716,10 +3318,10 @@
         <v>92</v>
       </c>
       <c r="I9" t="s">
-        <v>236</v>
+        <v>94</v>
       </c>
       <c r="J9" t="s">
-        <v>94</v>
+        <v>547</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2736,7 +3338,7 @@
         <v>94</v>
       </c>
       <c r="E10" t="s">
-        <v>407</v>
+        <v>548</v>
       </c>
       <c r="F10" t="s">
         <v>95</v>
@@ -2748,10 +3350,10 @@
         <v>77</v>
       </c>
       <c r="I10" t="s">
-        <v>235</v>
+        <v>94</v>
       </c>
       <c r="J10" t="s">
-        <v>94</v>
+        <v>549</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2768,7 +3370,7 @@
         <v>97</v>
       </c>
       <c r="E11" t="s">
-        <v>408</v>
+        <v>550</v>
       </c>
       <c r="F11" t="s">
         <v>98</v>
@@ -2780,10 +3382,10 @@
         <v>99</v>
       </c>
       <c r="I11" t="s">
-        <v>236</v>
+        <v>94</v>
       </c>
       <c r="J11" t="s">
-        <v>94</v>
+        <v>551</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2800,7 +3402,7 @@
         <v>101</v>
       </c>
       <c r="E12" t="s">
-        <v>409</v>
+        <v>552</v>
       </c>
       <c r="F12" t="s">
         <v>102</v>
@@ -2812,10 +3414,10 @@
         <v>77</v>
       </c>
       <c r="I12" t="s">
-        <v>235</v>
+        <v>94</v>
       </c>
       <c r="J12" t="s">
-        <v>94</v>
+        <v>553</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2829,10 +3431,10 @@
         <v>103</v>
       </c>
       <c r="D13" t="s">
-        <v>104</v>
+        <v>554</v>
       </c>
       <c r="E13" t="s">
-        <v>410</v>
+        <v>555</v>
       </c>
       <c r="F13" t="s">
         <v>105</v>
@@ -2844,10 +3446,10 @@
         <v>106</v>
       </c>
       <c r="I13" t="s">
-        <v>235</v>
+        <v>94</v>
       </c>
       <c r="J13" t="s">
-        <v>94</v>
+        <v>556</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2861,10 +3463,10 @@
         <v>107</v>
       </c>
       <c r="D14" t="s">
-        <v>108</v>
+        <v>557</v>
       </c>
       <c r="E14" t="s">
-        <v>411</v>
+        <v>558</v>
       </c>
       <c r="F14" t="s">
         <v>109</v>
@@ -2876,10 +3478,10 @@
         <v>110</v>
       </c>
       <c r="I14" t="s">
-        <v>235</v>
+        <v>94</v>
       </c>
       <c r="J14" t="s">
-        <v>94</v>
+        <v>559</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2893,10 +3495,10 @@
         <v>111</v>
       </c>
       <c r="D15" t="s">
-        <v>112</v>
+        <v>560</v>
       </c>
       <c r="E15" t="s">
-        <v>412</v>
+        <v>561</v>
       </c>
       <c r="F15" t="s">
         <v>113</v>
@@ -2908,10 +3510,10 @@
         <v>114</v>
       </c>
       <c r="I15" t="s">
-        <v>235</v>
+        <v>94</v>
       </c>
       <c r="J15" t="s">
-        <v>94</v>
+        <v>562</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2925,10 +3527,10 @@
         <v>115</v>
       </c>
       <c r="D16" t="s">
-        <v>116</v>
+        <v>563</v>
       </c>
       <c r="E16" t="s">
-        <v>413</v>
+        <v>564</v>
       </c>
       <c r="F16" t="s">
         <v>117</v>
@@ -2940,10 +3542,10 @@
         <v>118</v>
       </c>
       <c r="I16" t="s">
-        <v>235</v>
+        <v>94</v>
       </c>
       <c r="J16" t="s">
-        <v>94</v>
+        <v>565</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2960,7 +3562,7 @@
         <v>94</v>
       </c>
       <c r="E17" t="s">
-        <v>414</v>
+        <v>566</v>
       </c>
       <c r="F17" t="s">
         <v>120</v>
@@ -2972,10 +3574,10 @@
         <v>77</v>
       </c>
       <c r="I17" t="s">
-        <v>235</v>
+        <v>94</v>
       </c>
       <c r="J17" t="s">
-        <v>94</v>
+        <v>567</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2992,7 +3594,7 @@
         <v>122</v>
       </c>
       <c r="E18" t="s">
-        <v>415</v>
+        <v>568</v>
       </c>
       <c r="F18" t="s">
         <v>123</v>
@@ -3004,10 +3606,10 @@
         <v>77</v>
       </c>
       <c r="I18" t="s">
-        <v>235</v>
+        <v>94</v>
       </c>
       <c r="J18" t="s">
-        <v>94</v>
+        <v>567</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -3024,7 +3626,7 @@
         <v>125</v>
       </c>
       <c r="E19" t="s">
-        <v>416</v>
+        <v>569</v>
       </c>
       <c r="F19" t="s">
         <v>126</v>
@@ -3036,10 +3638,10 @@
         <v>77</v>
       </c>
       <c r="I19" t="s">
-        <v>235</v>
+        <v>94</v>
       </c>
       <c r="J19" t="s">
-        <v>94</v>
+        <v>567</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -3050,19 +3652,19 @@
         <v>44027</v>
       </c>
       <c r="C20" t="s">
-        <v>224</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>225</v>
+        <v>58</v>
       </c>
       <c r="E20" t="s">
-        <v>417</v>
+        <v>61</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="G20" t="s">
-        <v>238</v>
+        <v>63</v>
       </c>
       <c r="H20" t="s">
         <v>77</v>
@@ -3088,7 +3690,7 @@
         <v>128</v>
       </c>
       <c r="E21" t="s">
-        <v>418</v>
+        <v>570</v>
       </c>
       <c r="F21" t="s">
         <v>129</v>
@@ -3100,10 +3702,10 @@
         <v>130</v>
       </c>
       <c r="I21" t="s">
-        <v>235</v>
+        <v>94</v>
       </c>
       <c r="J21" t="s">
-        <v>94</v>
+        <v>571</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -3120,7 +3722,7 @@
         <v>132</v>
       </c>
       <c r="E22" t="s">
-        <v>419</v>
+        <v>572</v>
       </c>
       <c r="F22" t="s">
         <v>133</v>
@@ -3132,10 +3734,10 @@
         <v>134</v>
       </c>
       <c r="I22" t="s">
-        <v>235</v>
+        <v>94</v>
       </c>
       <c r="J22" t="s">
-        <v>94</v>
+        <v>565</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -3152,7 +3754,7 @@
         <v>136</v>
       </c>
       <c r="E23" t="s">
-        <v>420</v>
+        <v>573</v>
       </c>
       <c r="F23" t="s">
         <v>137</v>
@@ -3164,10 +3766,10 @@
         <v>138</v>
       </c>
       <c r="I23" t="s">
-        <v>235</v>
+        <v>94</v>
       </c>
       <c r="J23" t="s">
-        <v>94</v>
+        <v>574</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -3184,7 +3786,7 @@
         <v>140</v>
       </c>
       <c r="E24" t="s">
-        <v>421</v>
+        <v>575</v>
       </c>
       <c r="F24" t="s">
         <v>141</v>
@@ -3196,10 +3798,10 @@
         <v>77</v>
       </c>
       <c r="I24" t="s">
-        <v>235</v>
+        <v>94</v>
       </c>
       <c r="J24" t="s">
-        <v>94</v>
+        <v>544</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -3216,7 +3818,7 @@
         <v>143</v>
       </c>
       <c r="E25" t="s">
-        <v>422</v>
+        <v>576</v>
       </c>
       <c r="F25" t="s">
         <v>144</v>
@@ -3228,10 +3830,10 @@
         <v>77</v>
       </c>
       <c r="I25" t="s">
-        <v>234</v>
+        <v>94</v>
       </c>
       <c r="J25" t="s">
-        <v>94</v>
+        <v>577</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -3242,19 +3844,19 @@
         <v>44075</v>
       </c>
       <c r="C26" t="s">
-        <v>226</v>
+        <v>57</v>
       </c>
       <c r="D26" t="s">
-        <v>227</v>
+        <v>58</v>
       </c>
       <c r="E26" t="s">
-        <v>423</v>
+        <v>61</v>
       </c>
       <c r="F26" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="G26" t="s">
-        <v>238</v>
+        <v>63</v>
       </c>
       <c r="H26" t="s">
         <v>77</v>
@@ -3277,10 +3879,10 @@
         <v>145</v>
       </c>
       <c r="D27" t="s">
-        <v>146</v>
+        <v>578</v>
       </c>
       <c r="E27" t="s">
-        <v>424</v>
+        <v>579</v>
       </c>
       <c r="F27" t="s">
         <v>147</v>
@@ -3292,10 +3894,10 @@
         <v>148</v>
       </c>
       <c r="I27" t="s">
-        <v>235</v>
+        <v>94</v>
       </c>
       <c r="J27" t="s">
-        <v>94</v>
+        <v>556</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -3312,7 +3914,7 @@
         <v>150</v>
       </c>
       <c r="E28" t="s">
-        <v>425</v>
+        <v>580</v>
       </c>
       <c r="F28" t="s">
         <v>151</v>
@@ -3324,10 +3926,10 @@
         <v>77</v>
       </c>
       <c r="I28" t="s">
-        <v>235</v>
+        <v>94</v>
       </c>
       <c r="J28" t="s">
-        <v>94</v>
+        <v>553</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -3344,7 +3946,7 @@
         <v>153</v>
       </c>
       <c r="E29" t="s">
-        <v>426</v>
+        <v>581</v>
       </c>
       <c r="F29" t="s">
         <v>154</v>
@@ -3356,10 +3958,10 @@
         <v>155</v>
       </c>
       <c r="I29" t="s">
-        <v>234</v>
+        <v>94</v>
       </c>
       <c r="J29" t="s">
-        <v>94</v>
+        <v>582</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -3373,10 +3975,10 @@
         <v>156</v>
       </c>
       <c r="D30" t="s">
-        <v>157</v>
+        <v>583</v>
       </c>
       <c r="E30" t="s">
-        <v>427</v>
+        <v>584</v>
       </c>
       <c r="F30" t="s">
         <v>158</v>
@@ -3388,10 +3990,10 @@
         <v>77</v>
       </c>
       <c r="I30" t="s">
-        <v>236</v>
+        <v>94</v>
       </c>
       <c r="J30" t="s">
-        <v>94</v>
+        <v>585</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -3408,7 +4010,7 @@
         <v>160</v>
       </c>
       <c r="E31" t="s">
-        <v>428</v>
+        <v>586</v>
       </c>
       <c r="F31" t="s">
         <v>161</v>
@@ -3420,10 +4022,10 @@
         <v>77</v>
       </c>
       <c r="I31" t="s">
-        <v>235</v>
+        <v>94</v>
       </c>
       <c r="J31" t="s">
-        <v>94</v>
+        <v>544</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -3440,7 +4042,7 @@
         <v>163</v>
       </c>
       <c r="E32" t="s">
-        <v>429</v>
+        <v>587</v>
       </c>
       <c r="F32" t="s">
         <v>164</v>
@@ -3452,10 +4054,10 @@
         <v>138</v>
       </c>
       <c r="I32" t="s">
-        <v>234</v>
+        <v>94</v>
       </c>
       <c r="J32" t="s">
-        <v>94</v>
+        <v>588</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -3472,7 +4074,7 @@
         <v>166</v>
       </c>
       <c r="E33" t="s">
-        <v>430</v>
+        <v>589</v>
       </c>
       <c r="F33" t="s">
         <v>167</v>
@@ -3484,10 +4086,10 @@
         <v>168</v>
       </c>
       <c r="I33" t="s">
-        <v>235</v>
+        <v>94</v>
       </c>
       <c r="J33" t="s">
-        <v>94</v>
+        <v>590</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -3498,25 +4100,25 @@
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>169</v>
+        <v>57</v>
       </c>
       <c r="D34" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c r="E34" t="s">
-        <v>431</v>
+        <v>61</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="G34" t="s">
-        <v>293</v>
+        <v>63</v>
       </c>
       <c r="H34" t="s">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="I34" t="s">
-        <v>237</v>
+        <v>94</v>
       </c>
       <c r="J34" t="s">
         <v>94</v>
@@ -3533,10 +4135,10 @@
         <v>172</v>
       </c>
       <c r="D35" t="s">
-        <v>173</v>
+        <v>591</v>
       </c>
       <c r="E35" t="s">
-        <v>432</v>
+        <v>592</v>
       </c>
       <c r="F35" t="s">
         <v>174</v>
@@ -3548,10 +4150,10 @@
         <v>175</v>
       </c>
       <c r="I35" t="s">
-        <v>235</v>
+        <v>94</v>
       </c>
       <c r="J35" t="s">
-        <v>94</v>
+        <v>593</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -3568,7 +4170,7 @@
         <v>177</v>
       </c>
       <c r="E36" t="s">
-        <v>433</v>
+        <v>594</v>
       </c>
       <c r="F36" t="s">
         <v>178</v>
@@ -3580,10 +4182,10 @@
         <v>179</v>
       </c>
       <c r="I36" t="s">
-        <v>235</v>
+        <v>94</v>
       </c>
       <c r="J36" t="s">
-        <v>94</v>
+        <v>544</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -3600,7 +4202,7 @@
         <v>94</v>
       </c>
       <c r="E37" t="s">
-        <v>434</v>
+        <v>595</v>
       </c>
       <c r="F37" t="s">
         <v>181</v>
@@ -3612,10 +4214,10 @@
         <v>182</v>
       </c>
       <c r="I37" t="s">
-        <v>234</v>
+        <v>94</v>
       </c>
       <c r="J37" t="s">
-        <v>94</v>
+        <v>596</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -3629,10 +4231,10 @@
         <v>183</v>
       </c>
       <c r="D38" t="s">
-        <v>184</v>
+        <v>597</v>
       </c>
       <c r="E38" t="s">
-        <v>435</v>
+        <v>598</v>
       </c>
       <c r="F38" t="s">
         <v>185</v>
@@ -3644,10 +4246,10 @@
         <v>186</v>
       </c>
       <c r="I38" t="s">
-        <v>235</v>
+        <v>94</v>
       </c>
       <c r="J38" t="s">
-        <v>94</v>
+        <v>593</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -3658,19 +4260,19 @@
         <v>43907</v>
       </c>
       <c r="C39" t="s">
-        <v>228</v>
+        <v>57</v>
       </c>
       <c r="D39" t="s">
-        <v>229</v>
+        <v>58</v>
       </c>
       <c r="E39" t="s">
-        <v>436</v>
+        <v>61</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="G39" t="s">
-        <v>238</v>
+        <v>63</v>
       </c>
       <c r="H39" t="s">
         <v>77</v>
@@ -3693,10 +4295,10 @@
         <v>187</v>
       </c>
       <c r="D40" t="s">
-        <v>188</v>
+        <v>599</v>
       </c>
       <c r="E40" t="s">
-        <v>437</v>
+        <v>600</v>
       </c>
       <c r="F40" t="s">
         <v>189</v>
@@ -3708,10 +4310,10 @@
         <v>190</v>
       </c>
       <c r="I40" t="s">
-        <v>234</v>
+        <v>94</v>
       </c>
       <c r="J40" t="s">
-        <v>94</v>
+        <v>601</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -3728,7 +4330,7 @@
         <v>192</v>
       </c>
       <c r="E41" t="s">
-        <v>438</v>
+        <v>602</v>
       </c>
       <c r="F41" t="s">
         <v>193</v>
@@ -3740,10 +4342,10 @@
         <v>77</v>
       </c>
       <c r="I41" t="s">
-        <v>235</v>
+        <v>94</v>
       </c>
       <c r="J41" t="s">
-        <v>94</v>
+        <v>544</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -3754,19 +4356,19 @@
         <v>44013</v>
       </c>
       <c r="C42" t="s">
-        <v>230</v>
+        <v>57</v>
       </c>
       <c r="D42" t="s">
         <v>58</v>
       </c>
       <c r="E42" t="s">
-        <v>439</v>
+        <v>61</v>
       </c>
       <c r="F42" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="G42" t="s">
-        <v>238</v>
+        <v>63</v>
       </c>
       <c r="H42" t="s">
         <v>77</v>
@@ -3789,10 +4391,10 @@
         <v>194</v>
       </c>
       <c r="D43" t="s">
-        <v>195</v>
+        <v>603</v>
       </c>
       <c r="E43" t="s">
-        <v>440</v>
+        <v>604</v>
       </c>
       <c r="F43" t="s">
         <v>196</v>
@@ -3804,10 +4406,10 @@
         <v>197</v>
       </c>
       <c r="I43" t="s">
-        <v>235</v>
+        <v>94</v>
       </c>
       <c r="J43" t="s">
-        <v>94</v>
+        <v>593</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -3821,10 +4423,10 @@
         <v>198</v>
       </c>
       <c r="D44" t="s">
-        <v>199</v>
+        <v>605</v>
       </c>
       <c r="E44" t="s">
-        <v>441</v>
+        <v>606</v>
       </c>
       <c r="F44" t="s">
         <v>200</v>
@@ -3836,10 +4438,10 @@
         <v>201</v>
       </c>
       <c r="I44" t="s">
-        <v>235</v>
+        <v>94</v>
       </c>
       <c r="J44" t="s">
-        <v>94</v>
+        <v>593</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -3856,7 +4458,7 @@
         <v>203</v>
       </c>
       <c r="E45" t="s">
-        <v>442</v>
+        <v>607</v>
       </c>
       <c r="F45" t="s">
         <v>204</v>
@@ -3868,10 +4470,10 @@
         <v>77</v>
       </c>
       <c r="I45" t="s">
-        <v>234</v>
+        <v>94</v>
       </c>
       <c r="J45" t="s">
-        <v>94</v>
+        <v>577</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -3882,19 +4484,19 @@
         <v>44013</v>
       </c>
       <c r="C46" t="s">
-        <v>231</v>
+        <v>57</v>
       </c>
       <c r="D46" t="s">
-        <v>232</v>
+        <v>58</v>
       </c>
       <c r="E46" t="s">
-        <v>443</v>
+        <v>61</v>
       </c>
       <c r="F46" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="G46" t="s">
-        <v>238</v>
+        <v>63</v>
       </c>
       <c r="H46" t="s">
         <v>77</v>
@@ -3920,7 +4522,7 @@
         <v>206</v>
       </c>
       <c r="E47" t="s">
-        <v>444</v>
+        <v>608</v>
       </c>
       <c r="F47" t="s">
         <v>207</v>
@@ -3932,10 +4534,10 @@
         <v>208</v>
       </c>
       <c r="I47" t="s">
-        <v>234</v>
+        <v>94</v>
       </c>
       <c r="J47" t="s">
-        <v>94</v>
+        <v>609</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -3949,10 +4551,10 @@
         <v>209</v>
       </c>
       <c r="D48" t="s">
-        <v>210</v>
+        <v>610</v>
       </c>
       <c r="E48" t="s">
-        <v>445</v>
+        <v>611</v>
       </c>
       <c r="F48" t="s">
         <v>211</v>
@@ -3964,10 +4566,10 @@
         <v>212</v>
       </c>
       <c r="I48" t="s">
-        <v>234</v>
+        <v>94</v>
       </c>
       <c r="J48" t="s">
-        <v>94</v>
+        <v>609</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -3984,7 +4586,7 @@
         <v>214</v>
       </c>
       <c r="E49" t="s">
-        <v>446</v>
+        <v>612</v>
       </c>
       <c r="F49" t="s">
         <v>215</v>
@@ -3996,10 +4598,10 @@
         <v>216</v>
       </c>
       <c r="I49" t="s">
-        <v>236</v>
+        <v>94</v>
       </c>
       <c r="J49" t="s">
-        <v>94</v>
+        <v>551</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -4013,10 +4615,10 @@
         <v>217</v>
       </c>
       <c r="D50" t="s">
-        <v>218</v>
+        <v>613</v>
       </c>
       <c r="E50" t="s">
-        <v>447</v>
+        <v>614</v>
       </c>
       <c r="F50" t="s">
         <v>219</v>
@@ -4028,10 +4630,10 @@
         <v>220</v>
       </c>
       <c r="I50" t="s">
-        <v>235</v>
+        <v>94</v>
       </c>
       <c r="J50" t="s">
-        <v>94</v>
+        <v>565</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -4042,22 +4644,22 @@
         <v>43891</v>
       </c>
       <c r="C51" t="s">
-        <v>394</v>
+        <v>57</v>
       </c>
       <c r="D51" t="s">
-        <v>448</v>
+        <v>58</v>
       </c>
       <c r="E51" t="s">
-        <v>449</v>
+        <v>61</v>
       </c>
       <c r="F51" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="G51" t="s">
-        <v>397</v>
+        <v>63</v>
       </c>
       <c r="H51" t="s">
-        <v>398</v>
+        <v>77</v>
       </c>
       <c r="I51" t="s">
         <v>94</v>
@@ -4080,7 +4682,7 @@
         <v>222</v>
       </c>
       <c r="E52" t="s">
-        <v>450</v>
+        <v>615</v>
       </c>
       <c r="F52" t="s">
         <v>223</v>
@@ -4092,10 +4694,10 @@
         <v>77</v>
       </c>
       <c r="I52" t="s">
-        <v>234</v>
+        <v>94</v>
       </c>
       <c r="J52" t="s">
-        <v>94</v>
+        <v>577</v>
       </c>
     </row>
   </sheetData>
